--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d84049-Reviews-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>199</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Long-Beach-Convention-Center.h8089.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="768">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2198 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r578619991-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>84049</t>
+  </si>
+  <si>
+    <t>578619991</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Arrived around 5 p.m. The parking lot is very small but there were a couple of spaces available at that time.  Lysette at the front desk was very friendly.  Check in was quick and easy.  The room was a pleasant surprise.  Nicely decorated with a bed in the first space when you walk in, then another bed in a separate room.  Space was a little small but it was fine for the two of us that were in the room.  Bathroom is small but not cramped.  At one point we were both in the mirror there with no problem.  South of the hotel is the ocean and convention center.  North is the nightlife...all within a 20 minute walk.  Which is convenient because we moved our car out of the hotel parking lot one day and came back to no parking spots being available.  We ended up having to park the car on a street about a mile away...which wasn't too inconvenient for someone who walks regularly anyway, but I was hoping nothing would happen to my car!  This place really is a gem.  Mini fridge and microwave in the room and 24 hour coffee at the front desk space.  Room was very clean and quiet and the area felt safe.  I would absolutely stay at this hotel again. (P.S. Nothing happened to my car.)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Arrived around 5 p.m. The parking lot is very small but there were a couple of spaces available at that time.  Lysette at the front desk was very friendly.  Check in was quick and easy.  The room was a pleasant surprise.  Nicely decorated with a bed in the first space when you walk in, then another bed in a separate room.  Space was a little small but it was fine for the two of us that were in the room.  Bathroom is small but not cramped.  At one point we were both in the mirror there with no problem.  South of the hotel is the ocean and convention center.  North is the nightlife...all within a 20 minute walk.  Which is convenient because we moved our car out of the hotel parking lot one day and came back to no parking spots being available.  We ended up having to park the car on a street about a mile away...which wasn't too inconvenient for someone who walks regularly anyway, but I was hoping nothing would happen to my car!  This place really is a gem.  Mini fridge and microwave in the room and 24 hour coffee at the front desk space.  Room was very clean and quiet and the area felt safe.  I would absolutely stay at this hotel again. (P.S. Nothing happened to my car.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r575040893-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>575040893</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very small </t>
+  </si>
+  <si>
+    <t>This is probably the smallest choice hotel we have ever stayed at. You have to duck at the end of the bed to not hit your head on the TV as you walk at the end of the bed.  Not very clean either. If your just sleeping it might be ok. But we are not putting this on our return trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>This is probably the smallest choice hotel we have ever stayed at. You have to duck at the end of the bed to not hit your head on the TV as you walk at the end of the bed.  Not very clean either. If your just sleeping it might be ok. But we are not putting this on our return trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r569308846-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>569308846</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic, but nice </t>
+  </si>
+  <si>
+    <t>This hotel is half a block from the main Shoreline Drive in Long Beach. Staff is very accommodating and the room is clean with standard amenities. It seems to be an older style yet renovated hotel. The rooms are small, but for a short stay at a reasonable price it fit the bill. They offer coffee, juice and prepackaged muffins and granola bars in the morning. There is on-site parking, which is a plus since downtown parking is hard to find. If you’re looking for a basic, budget hotel for short stay, this is a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is half a block from the main Shoreline Drive in Long Beach. Staff is very accommodating and the room is clean with standard amenities. It seems to be an older style yet renovated hotel. The rooms are small, but for a short stay at a reasonable price it fit the bill. They offer coffee, juice and prepackaged muffins and granola bars in the morning. There is on-site parking, which is a plus since downtown parking is hard to find. If you’re looking for a basic, budget hotel for short stay, this is a good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r533900834-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>533900834</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>Went without a car.  Stayed 3 days, had 1 day somewhere else and then checked in and back out for 1 additional day.  First room was perfect, last room the wallpaper needed replacing, but other than that, good stay.  First room was on the top floor, second on the bottom floor which we requested because of carrying luggage and no elevator.  Walking distance to the aquarium but it is quite a walk, can seem long after all day of walking, a little over 1 mile.  Free passport bus is listed as stopping at the bus stop right near the room on the Long Beach transit website, but never stopped any of the times listed there, it does pick up from aquarium though to go to the Queen Mary and other locations downtown.  Friendly staff, they helped us carry our luggage up the stairs the first day.  Breakfast is packaged muffins/pastry and granola bars.  Vons grocery store is really close.  Has better price compared to a lot of the hotels right in the downtown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2017</t>
+  </si>
+  <si>
+    <t>Went without a car.  Stayed 3 days, had 1 day somewhere else and then checked in and back out for 1 additional day.  First room was perfect, last room the wallpaper needed replacing, but other than that, good stay.  First room was on the top floor, second on the bottom floor which we requested because of carrying luggage and no elevator.  Walking distance to the aquarium but it is quite a walk, can seem long after all day of walking, a little over 1 mile.  Free passport bus is listed as stopping at the bus stop right near the room on the Long Beach transit website, but never stopped any of the times listed there, it does pick up from aquarium though to go to the Queen Mary and other locations downtown.  Friendly staff, they helped us carry our luggage up the stairs the first day.  Breakfast is packaged muffins/pastry and granola bars.  Vons grocery store is really close.  Has better price compared to a lot of the hotels right in the downtown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r516043904-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>516043904</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Good value place in a great place</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is more of a motel than a hotel but its in a great location and we had a really good stay here. Breakfast is basic but helped set us up for the day and rooms were kept clean. Staff were helpful and we had a great time here in Long Beach. It suited us just fine!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is more of a motel than a hotel but its in a great location and we had a really good stay here. Breakfast is basic but helped set us up for the day and rooms were kept clean. Staff were helpful and we had a great time here in Long Beach. It suited us just fine!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r513933161-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>513933161</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Very happy with our stay, great location</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was pleasant surprise in Downtown Long Beach.  I has a great location and the room we had was redone and very nice.  Aside from some oddly stained sheets on the bed, the room was very clean including the bathroom.  Parking can get tight if it's busy.  We preferred to leave the car at the hotel in the evening and Uber to dinner if we weren't walking.We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was pleasant surprise in Downtown Long Beach.  I has a great location and the room we had was redone and very nice.  Aside from some oddly stained sheets on the bed, the room was very clean including the bathroom.  Parking can get tight if it's busy.  We preferred to leave the car at the hotel in the evening and Uber to dinner if we weren't walking.We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r501762365-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>501762365</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Good price for Long Beach, CA</t>
+  </si>
+  <si>
+    <t>From the outside, this doesn't look like a nice motel, but the inside is nicely decorated with an updated bathroom and premium toiletries.  The breakfast is simple (pastries, granola bars, coffee) but complimentary.  You have to drive into an alleyway to get out, but it's close to the beach and The Queen Mary. There's no onsite laundry, but literally a 5-minute drive away from one. MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>From the outside, this doesn't look like a nice motel, but the inside is nicely decorated with an updated bathroom and premium toiletries.  The breakfast is simple (pastries, granola bars, coffee) but complimentary.  You have to drive into an alleyway to get out, but it's close to the beach and The Queen Mary. There's no onsite laundry, but literally a 5-minute drive away from one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r500976188-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>500976188</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Good hotel at great location, would hope for more parking</t>
+  </si>
+  <si>
+    <t>The hotel is at a great location, within walking distance to downtown, the beach, the theaters, the aquarium, and other sites. The facility is well maintained. Most of the staff are quite friendly. I met with one who was a bit indifferent...Parking could be an issue, if you're sharing the room with a friend. The parking lot is quite small, with only one spot for each room. But if you're lucky, you can find parking on the streets.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is at a great location, within walking distance to downtown, the beach, the theaters, the aquarium, and other sites. The facility is well maintained. Most of the staff are quite friendly. I met with one who was a bit indifferent...Parking could be an issue, if you're sharing the room with a friend. The parking lot is quite small, with only one spot for each room. But if you're lucky, you can find parking on the streets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r493862432-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>493862432</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>End of vacation beach trip!</t>
+  </si>
+  <si>
+    <t>We decided to stay here after seeing other good reviews, and the reasonable price. Walking distance to the beach, aquarium, and several good restaurants. Friendly staff, and were brought a bag with treats and a nice card after check in from the hotel manager. Felt very welcomed, and appreciated. Room was very clean and comfortable, and we would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>We decided to stay here after seeing other good reviews, and the reasonable price. Walking distance to the beach, aquarium, and several good restaurants. Friendly staff, and were brought a bag with treats and a nice card after check in from the hotel manager. Felt very welcomed, and appreciated. Room was very clean and comfortable, and we would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r486591934-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>486591934</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Just a short stop</t>
+  </si>
+  <si>
+    <t>On our way from az to menifee and now to Long Beach. Staying just one night. The place is small but very clean.  Wow really impressed with now clean and updated the bathroom is.  Well worth the price. Nice location near downtown and a lot of eating places to choose from. If you are visiting this is a option. Not a grand place to stay but great for an inexpensive short stop. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>On our way from az to menifee and now to Long Beach. Staying just one night. The place is small but very clean.  Wow really impressed with now clean and updated the bathroom is.  Well worth the price. Nice location near downtown and a lot of eating places to choose from. If you are visiting this is a option. Not a grand place to stay but great for an inexpensive short stop. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r484757900-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>484757900</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Not what was promised or expected</t>
+  </si>
+  <si>
+    <t>First off, our rental was to include a Queen and Double beds, but upon arrival and entering the room, the one bed was locked in another room and we did not have access to it.  Upon asking, we were informed that that room was only available if we had book the adjoining room, this making 3 bedrooms.  Reservation never said that.  Room small, shower even smaller and the entire set up screamed poor layout and planning.  For a supposed inexpensive room, don't book it if close to anything happening as they will charge you the same rates and many of the top dollar hotels.  Lastly, free wifi, but you had to log in every time you left the room and your code was invalid the morning of your departure.  Needless to say, they lost a customer and will gladly pay the extra for a real room with amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>First off, our rental was to include a Queen and Double beds, but upon arrival and entering the room, the one bed was locked in another room and we did not have access to it.  Upon asking, we were informed that that room was only available if we had book the adjoining room, this making 3 bedrooms.  Reservation never said that.  Room small, shower even smaller and the entire set up screamed poor layout and planning.  For a supposed inexpensive room, don't book it if close to anything happening as they will charge you the same rates and many of the top dollar hotels.  Lastly, free wifi, but you had to log in every time you left the room and your code was invalid the morning of your departure.  Needless to say, they lost a customer and will gladly pay the extra for a real room with amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r470184305-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>470184305</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>The service at this hotel was very friendly and the room was newly renovated.  The location was outstanding with a lot of restaurants within walking distance.  I stayed here for four nights in March, 2017 and will definitely come back.  The bathroom has in floor heating and a nice shower.  The cons are that the room is a little small and there's no in room coffee maker (but there was fresh coffee available at the office).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>The service at this hotel was very friendly and the room was newly renovated.  The location was outstanding with a lot of restaurants within walking distance.  I stayed here for four nights in March, 2017 and will definitely come back.  The bathroom has in floor heating and a nice shower.  The cons are that the room is a little small and there's no in room coffee maker (but there was fresh coffee available at the office).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r462257619-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>462257619</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>One of the Best Choice Properties I've Stayed At</t>
+  </si>
+  <si>
+    <t>This is by far the best Choice Hotels property I've ever stayed at. The rooms had just been renovated, the staff was incredibly attentive, friendly, and professional, and the overall quality of the amenities and housekeeping were top notch. This was all compounded by the reasonable price, which seemed just right for the location and area.The only downside was that the rooms, at least the room I was in, was a bit on the smaller side. However given the quality of the rooms and the price, this wasn't upsetting. Additionally, even though a bit small, they were large enough to be comfortable for a multi-day stay.I will be staying here again if I am ever in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded February 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2017</t>
+  </si>
+  <si>
+    <t>This is by far the best Choice Hotels property I've ever stayed at. The rooms had just been renovated, the staff was incredibly attentive, friendly, and professional, and the overall quality of the amenities and housekeeping were top notch. This was all compounded by the reasonable price, which seemed just right for the location and area.The only downside was that the rooms, at least the room I was in, was a bit on the smaller side. However given the quality of the rooms and the price, this wasn't upsetting. Additionally, even though a bit small, they were large enough to be comfortable for a multi-day stay.I will be staying here again if I am ever in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r462093548-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>462093548</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Great Find, Very Pleased with Our Stay</t>
+  </si>
+  <si>
+    <t>In town first weekend in January for a business convention. With hubby and a small group of friends/business associates. When I first saw the outside, which is somewhat nondescript, I questioned what the rooms were going to look like. We were all pleasantly surprised. Our rooms were all very clean, and featured a main room with Queen size bed and a separate bedroom with a larger double size bed. The beds were very comfortable. The setup was perfect for sharing, as you had your own space. There was a desk with mirror, a few drawers, mini fridge that kept our beverages cold, a flat screen tv, a couple of chairs, a couple of night stands, plenty of good lighting, and a separate closet with safe. Free Wi-Fi was good. Towels are thin. Parking is tight and limited, as we found out returning from dinner one night. We decided to hoof it most places after we experienced the no parking situation. Simple continental breakfast with coffee, oj, and muffins and pastries were appreciated. Price per night was less than many comparable locations. It was within walking distance to the Long Beach Arena and countless fine eateries. Quiet location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>In town first weekend in January for a business convention. With hubby and a small group of friends/business associates. When I first saw the outside, which is somewhat nondescript, I questioned what the rooms were going to look like. We were all pleasantly surprised. Our rooms were all very clean, and featured a main room with Queen size bed and a separate bedroom with a larger double size bed. The beds were very comfortable. The setup was perfect for sharing, as you had your own space. There was a desk with mirror, a few drawers, mini fridge that kept our beverages cold, a flat screen tv, a couple of chairs, a couple of night stands, plenty of good lighting, and a separate closet with safe. Free Wi-Fi was good. Towels are thin. Parking is tight and limited, as we found out returning from dinner one night. We decided to hoof it most places after we experienced the no parking situation. Simple continental breakfast with coffee, oj, and muffins and pastries were appreciated. Price per night was less than many comparable locations. It was within walking distance to the Long Beach Arena and countless fine eateries. Quiet location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r455710791-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>455710791</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Very satisfactory</t>
+  </si>
+  <si>
+    <t>Was attending a function at the Terrace Theater and wanted a room close by. This was quite convenient and the room was fine, fridge, micro, nice bathroom. Sound proofing from upstairs room not good, (upstairs should have carpeting) but generally quiet area. Good value for the price in this area of Long Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Was attending a function at the Terrace Theater and wanted a room close by. This was quite convenient and the room was fine, fridge, micro, nice bathroom. Sound proofing from upstairs room not good, (upstairs should have carpeting) but generally quiet area. Good value for the price in this area of Long Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r446148953-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>446148953</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Not what I normally choose, but we were in Long Beach overnight to see a friend and didn't want to spend fancy money for a better place.  The staff was nice, the room was clean, and I rather much like "dated" or whatever to orange or lime green walls etc.  Would stay here again if we were in the area overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Not what I normally choose, but we were in Long Beach overnight to see a friend and didn't want to spend fancy money for a better place.  The staff was nice, the room was clean, and I rather much like "dated" or whatever to orange or lime green walls etc.  Would stay here again if we were in the area overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r444116102-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>444116102</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Would recommend</t>
+  </si>
+  <si>
+    <t>We were greeted with friendly service upon our arrival and were surprised by how much the Rodeway exceeded our expectations. The room was as pictured on various booking sites, with updated furnishings and quite clean. The hotel is within walking distance to great restaurants (definitely recommend the breakfast bar right next door and the cider and Meade pub up the street-- great society). Thanks for the great hospitality! MoreShow less</t>
+  </si>
+  <si>
+    <t>We were greeted with friendly service upon our arrival and were surprised by how much the Rodeway exceeded our expectations. The room was as pictured on various booking sites, with updated furnishings and quite clean. The hotel is within walking distance to great restaurants (definitely recommend the breakfast bar right next door and the cider and Meade pub up the street-- great society). Thanks for the great hospitality! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r442587504-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>442587504</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Worth the money</t>
+  </si>
+  <si>
+    <t>Stayed for 5 days to attending the conference. As this is not a fancy hotel, but it closes to Long Beach Convention Center (10 to 15 minutes walking distance) at a reasonable price per night. The counter staff is friendly and they provide a typical breakfast (muffin, juice and coffee) which is good enough for me.The cleanliness of room was fair. There is a special instruction on towel and bed sheet card placement if you want the housekeeper to change a new set of them. But if compared to 4, 5 star hotel room, the clealiness quality is definitely lower alittle bit, but this is the price what you paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 5 days to attending the conference. As this is not a fancy hotel, but it closes to Long Beach Convention Center (10 to 15 minutes walking distance) at a reasonable price per night. The counter staff is friendly and they provide a typical breakfast (muffin, juice and coffee) which is good enough for me.The cleanliness of room was fair. There is a special instruction on towel and bed sheet card placement if you want the housekeeper to change a new set of them. But if compared to 4, 5 star hotel room, the clealiness quality is definitely lower alittle bit, but this is the price what you paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r428582535-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428582535</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I had so many issues with this hotel. When we first checked in, everything seemed fine, aside from the small room size. Things got worse and worse as the night went on. 1. The carpeting is so dirty. I got out of the shower with clean feet. 5 minutes later my feet were black. I started walking around with a towel under my feet and it was also black in no time. 2. You can hear everything in the rooms around you. The vacuum, people walking, doors etc. 3. The fridge went out overnight. All of our food spoiled. 4. The AC was so horrible. You had to stand right next to it to feel anything. I was sweating while getting ready. And it was full of dust. 5. The shower head was so short I had to bend down to use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Shawn J, Manager at Rodeway Inn, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>I had so many issues with this hotel. When we first checked in, everything seemed fine, aside from the small room size. Things got worse and worse as the night went on. 1. The carpeting is so dirty. I got out of the shower with clean feet. 5 minutes later my feet were black. I started walking around with a towel under my feet and it was also black in no time. 2. You can hear everything in the rooms around you. The vacuum, people walking, doors etc. 3. The fridge went out overnight. All of our food spoiled. 4. The AC was so horrible. You had to stand right next to it to feel anything. I was sweating while getting ready. And it was full of dust. 5. The shower head was so short I had to bend down to use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r426889579-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>426889579</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Great spot</t>
+  </si>
+  <si>
+    <t>The rooms here were very nice, clean and sizeable.No balcony and the windows did not open which was a bit inconvenient. But they were very comfy and there was a very basic breakfast. The location was great however - easy walking to the marina with bars and restaurants as well as to down town. Staff were nice and overall good value and fine location.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms here were very nice, clean and sizeable.No balcony and the windows did not open which was a bit inconvenient. But they were very comfy and there was a very basic breakfast. The location was great however - easy walking to the marina with bars and restaurants as well as to down town. Staff were nice and overall good value and fine location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r425997930-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>425997930</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Great for the $'s,Great staff!</t>
+  </si>
+  <si>
+    <t>It's not a fancy shmancy hotel... but has everything you need.  Clean, super helpful/nice staff and close to beach, restaurants, convention center and grocery store.  Parking is a bit tight, but hey... its free!  While we had issues with the tv and hairdryer, the staff was right on it to fix it. Breakfast is super simple but better than nothing! :)  It is also somewhat enclosed so it makes it seem safer too.  And Yes, there is a Starbucks super close!MoreShow less</t>
+  </si>
+  <si>
+    <t>It's not a fancy shmancy hotel... but has everything you need.  Clean, super helpful/nice staff and close to beach, restaurants, convention center and grocery store.  Parking is a bit tight, but hey... its free!  While we had issues with the tv and hairdryer, the staff was right on it to fix it. Breakfast is super simple but better than nothing! :)  It is also somewhat enclosed so it makes it seem safer too.  And Yes, there is a Starbucks super close!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r383438225-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>383438225</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Great budget choice - Perfect for pre-cruise stay</t>
+  </si>
+  <si>
+    <t>This is a typical motel-style property, in a great location only a short walk from Downtown and Shoreline Village.The rooms are surprisingly well-appointed, nicely furnished, and spacious. The staff were also very friendly.We only stayed one night prior to a cruise the following day, and it was only a very short Uber ride to the cruise port (although I believe the hotel also provide a shuttle).All in all a great budget hotel in a perfect locationMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This is a typical motel-style property, in a great location only a short walk from Downtown and Shoreline Village.The rooms are surprisingly well-appointed, nicely furnished, and spacious. The staff were also very friendly.We only stayed one night prior to a cruise the following day, and it was only a very short Uber ride to the cruise port (although I believe the hotel also provide a shuttle).All in all a great budget hotel in a perfect locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r371052236-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>371052236</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Great location and good value</t>
+  </si>
+  <si>
+    <t>Staff were very friendly and helpful. The room was clean and comfortable. Fridge, microwave and TV all came in handy. Parking was free and convenvient. Good toiletries and plenty of towels. It was quiet too and wifi was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff were very friendly and helpful. The room was clean and comfortable. Fridge, microwave and TV all came in handy. Parking was free and convenvient. Good toiletries and plenty of towels. It was quiet too and wifi was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r366454670-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>366454670</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent value and location</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay...I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay...I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r348532013-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>348532013</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>This hotel is ideal if all you want is a place to put your head down for the night. It's got great facilities in the room, perfect location near the beach, comfortable, clean, and extremely friendly and helpful staff. The hotel is a short distance from a great shopping market, the beach, the aquarium, and lots of public transport. I would absolutely stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>General M, Director of Sales at Rodeway Inn, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is ideal if all you want is a place to put your head down for the night. It's got great facilities in the room, perfect location near the beach, comfortable, clean, and extremely friendly and helpful staff. The hotel is a short distance from a great shopping market, the beach, the aquarium, and lots of public transport. I would absolutely stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r346734960-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>346734960</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Great stay and location</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is a cute, little motel, conveniently located in the heart of Long Beach. The beach is a 2 minute walk away and is close to many of attractions found in Long Beach (the front desk staff did a fantastic job of directing me to local places). The rooms were quite clean and fairly good sized, considering the size of the property. MoreShow less</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn is a cute, little motel, conveniently located in the heart of Long Beach. The beach is a 2 minute walk away and is close to many of attractions found in Long Beach (the front desk staff did a fantastic job of directing me to local places). The rooms were quite clean and fairly good sized, considering the size of the property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r335572601-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>335572601</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Same price as a better hotel</t>
+  </si>
+  <si>
+    <t>I accidentally bought this hotel instead of another. I listed 6 people as we have a lot of kids. We could've stayed at a fancy hotel on the ocean for the same price as this flea bag. Never again! Disgusting overpriced and very unfriendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I accidentally bought this hotel instead of another. I listed 6 people as we have a lot of kids. We could've stayed at a fancy hotel on the ocean for the same price as this flea bag. Never again! Disgusting overpriced and very unfriendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r323530179-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>323530179</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>A nicely renovated quiet place</t>
+  </si>
+  <si>
+    <t>This place is very quiet and nicely renovated, although the room is not that big. I was so glad to book this place for my business trip. It is always great to have a fridge and a microwave. There is Vons in a block or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Rodeway Inn, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>This place is very quiet and nicely renovated, although the room is not that big. I was so glad to book this place for my business trip. It is always great to have a fridge and a microwave. There is Vons in a block or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r322424519-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>322424519</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Nice motel, great location</t>
+  </si>
+  <si>
+    <t>The place is a normal American style motel. We were lucky and got a parking space. It seems other reviewers have had problems with that but it didn't seem full when we were there. The room was fine; clean enough and with all the amenities you would expect including free wifi. They were nice enough to let us check out a bit late and also let us leave our car there while we ate brunch at the Breakfast Bar next door (highly recommended). I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The place is a normal American style motel. We were lucky and got a parking space. It seems other reviewers have had problems with that but it didn't seem full when we were there. The room was fine; clean enough and with all the amenities you would expect including free wifi. They were nice enough to let us check out a bit late and also let us leave our car there while we ate brunch at the Breakfast Bar next door (highly recommended). I would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r321329187-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>321329187</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Solid affordable option in the perfect location</t>
+  </si>
+  <si>
+    <t>From the start, everything was easy. Reservations online were easy to do. Arrival and check in were simple and straightforward. Parking was free and easy. Big plus in big cities. The location was perfect! Walking distance to everything important. Some fantastic restaurants within a few blocks. The staff were all very helpful and friendly. Accommodating as possible.The room was tidy and had all the requirements. Bathroom was a little tight and the shower was small, but I'd always rather have a small shower in a larger room than the other way around. It was workable and my elbows didn't bump into the walls, so it works OK.Overall, it was a good experience. Much more affordable option than the big hotels around. In a good part of town (there really aren't "bad areas" in Long Beach), and I never felt unsafe. Easy walk (about half a mile) to the convention center. Perfect affordable option.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the start, everything was easy. Reservations online were easy to do. Arrival and check in were simple and straightforward. Parking was free and easy. Big plus in big cities. The location was perfect! Walking distance to everything important. Some fantastic restaurants within a few blocks. The staff were all very helpful and friendly. Accommodating as possible.The room was tidy and had all the requirements. Bathroom was a little tight and the shower was small, but I'd always rather have a small shower in a larger room than the other way around. It was workable and my elbows didn't bump into the walls, so it works OK.Overall, it was a good experience. Much more affordable option than the big hotels around. In a good part of town (there really aren't "bad areas" in Long Beach), and I never felt unsafe. Easy walk (about half a mile) to the convention center. Perfect affordable option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r315125527-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>315125527</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>I stayed one night here. Nothing fancy, but clean and walking distance to many restaurants and shopping. Affordable price, comfortable bed, would stay again. Only giving three stars because that's what it is, basic and okay. No complaints.Good breakfast place right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night here. Nothing fancy, but clean and walking distance to many restaurants and shopping. Affordable price, comfortable bed, would stay again. Only giving three stars because that's what it is, basic and okay. No complaints.Good breakfast place right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r311144960-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>311144960</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Updated rooms, excellent quality, We would stay here again.</t>
+  </si>
+  <si>
+    <t>They took an old style motel and turned it into a boutique style hotel.  The room was fresh and clean, all updated.  Modern Travertine Shower, high end linens, just nicely appointed.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>They took an old style motel and turned it into a boutique style hotel.  The room was fresh and clean, all updated.  Modern Travertine Shower, high end linens, just nicely appointed.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r307871296-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>307871296</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Excellent! Will stay again.</t>
+  </si>
+  <si>
+    <t>I expected a decent place, but was surprised to have such a great experience. First, I had found the hotel through another website and had some issues with processing my cc. A gal from the inn called and after several calls we got that worked out. We arrived late on a Saturday night. Parking is very limited. The gal working the office moved her car so we could park! The room is extremely nice. The second bed has its own bedroom. The shower is granite. Very clean room. Best of all is that the bed was probably the most comfortable bed I've ever slept in a hotel. I'm not leaving with a sore back and little sleep. I am very happy with our visit here and will stay again next time I visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>I expected a decent place, but was surprised to have such a great experience. First, I had found the hotel through another website and had some issues with processing my cc. A gal from the inn called and after several calls we got that worked out. We arrived late on a Saturday night. Parking is very limited. The gal working the office moved her car so we could park! The room is extremely nice. The second bed has its own bedroom. The shower is granite. Very clean room. Best of all is that the bed was probably the most comfortable bed I've ever slept in a hotel. I'm not leaving with a sore back and little sleep. I am very happy with our visit here and will stay again next time I visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r301769908-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>301769908</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Nice stop on the way to northern california</t>
+  </si>
+  <si>
+    <t>We stayed only for one night and the location was perfect, near the beach and L.A. The staff was very friendly and helpful whatever question we had. Nice rooms, very confortable and quiet, with huge selection of toiletteries. Free tea/coffee all day &amp;night long.The breakfast pastries could be better quality, but at least there's a free breakfast.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r301503940-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>301503940</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Family friendly bargain</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel during the cities power outage with my grandkids. They had a generator, so we had power in the rooms which was very nice. The rooms were pretty and clean and the property itself was right next to the beach and a breakfast place that my grandkids loved. We parked at an off site property for a bargain price. Overall good experience, I just wish the city had power.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r299003094-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>299003094</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Recommend Recommend Recommend to all!</t>
+  </si>
+  <si>
+    <t>I originally booked this hotel because of the great price but little did I know that the quality was going to be just as great!  My family and I spent a night in Long Beach before heading out to to the Catalina Islands early the next morning.  I had just mentioned to the desk clerk, while checking in, that I would need a means of transportation for tomorrow morning at 8am.  Just from the mention, they took it upon themselves and actually call a taxi to take my family to the port.  They even provided FREE coffee, tea, orange juice, danishes, and muffins as a continental breakfast. The room itself was very clean and spacious for my family of 4.  The staff was very friendly and knowledgeable about family friendly restaurants and activities.  I would recommend this hotel to all families!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I originally booked this hotel because of the great price but little did I know that the quality was going to be just as great!  My family and I spent a night in Long Beach before heading out to to the Catalina Islands early the next morning.  I had just mentioned to the desk clerk, while checking in, that I would need a means of transportation for tomorrow morning at 8am.  Just from the mention, they took it upon themselves and actually call a taxi to take my family to the port.  They even provided FREE coffee, tea, orange juice, danishes, and muffins as a continental breakfast. The room itself was very clean and spacious for my family of 4.  The staff was very friendly and knowledgeable about family friendly restaurants and activities.  I would recommend this hotel to all families!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r292310737-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>292310737</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Some things to be aware of...</t>
+  </si>
+  <si>
+    <t>The hotel itself was fairly clean. We did have an issue with parking one night. I booked the hotel because it said that it provided parking for its guests. Well it turns out that if they are totally book, then they don't have parking spots for all their guests, and it is first come first serve. They expect the guests who do not have a parking spot to pay for parking in another hotels lot, and they refused to cover the parking fee. We also lost power for over 24 hours (along with the surrounding area), because it is a smaller hotel, there was no generator to get the electricity back on. So there was no AC (and no window that could open) and no hot water for the shower. Also, continental breakfast means: coffee, tea, orange juice, a prepackaged muffin or prepackaged danish. Overall, if I went back to Long Beach, I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself was fairly clean. We did have an issue with parking one night. I booked the hotel because it said that it provided parking for its guests. Well it turns out that if they are totally book, then they don't have parking spots for all their guests, and it is first come first serve. They expect the guests who do not have a parking spot to pay for parking in another hotels lot, and they refused to cover the parking fee. We also lost power for over 24 hours (along with the surrounding area), because it is a smaller hotel, there was no generator to get the electricity back on. So there was no AC (and no window that could open) and no hot water for the shower. Also, continental breakfast means: coffee, tea, orange juice, a prepackaged muffin or prepackaged danish. Overall, if I went back to Long Beach, I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r286595234-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>286595234</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value! </t>
+  </si>
+  <si>
+    <t>The location was wonderful,  the boardwalk was an easy 5 min walk away.  The rooms are clean, nicely appointed,  and roomy. The staff are very competent and pleasant. Packaged pastries and coffee (tasty) are available for breakfast. Free wifi and lots of cable channels (including HBO and Cinemax + others) to choose from. Our only issue was that we purchased on Priceline and only had a queen bed for 3 of us,  2 adults/one child. So make sure you know what you are getting before booking,  other than that everything was great  : )</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r285084072-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>285084072</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Wonderful rooms, but no guarantee you'll have a place for your car!</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.  
+    About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.  
+    The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces...I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.      About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.      The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces short of accommodating a full-house.  That's bad enough, but when the employees take up spaces?????    So, roll the dice if you'd like.  The rooms are very nice, but you could be walking for blocks and paying $15 to park in a remote lot.  Next time I'll look for a room where I know I may park my car at the same location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.  
+    About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.  
+    The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces...I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.      About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.      The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces short of accommodating a full-house.  That's bad enough, but when the employees take up spaces?????    So, roll the dice if you'd like.  The rooms are very nice, but you could be walking for blocks and paying $15 to park in a remote lot.  Next time I'll look for a room where I know I may park my car at the same location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r279764980-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>279764980</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Friendly Staff, Good Value</t>
+  </si>
+  <si>
+    <t>We stayed here for one week for a conference at the Long Beach Convention Center, which is about 5-6 blocks away (a half mile walking from door to door).  This is an older style, two story property with exterior hallways that overlook the parking area in the center.  The facility is very well kept up and updated inside and out.  
+The rooms:
+There is only a shower stall, no tub, in the bathrooms. Housekeeping was good, although they come by later in the afternoon which makes an early check-in a problem.  There was a strong smell of air freshener the first day, but opening the windows and turning the fan on took care of that.  There are a mini-fridge and microwave in the rooms.  The bed was comfortable but the pillows were small.  There were many cable TV stations available.  The shower drain was very slow the first day, but when we let the office know about it they sent a maintenance person right away to fix it.
+Amenities:
+Breakfast is from 7 - 10 am daily and consists of coffee, orange juice, and prepackaged pastries.  Parking is free, but limited in spaces.  We were able to find a parking space each night though while we were there.  It can be a tight squeeze to exit the parking area (you have to go out a narrow alley) if you have a longer vehicle.
+Safety and Security:
+We had no problems...We stayed here for one week for a conference at the Long Beach Convention Center, which is about 5-6 blocks away (a half mile walking from door to door).  This is an older style, two story property with exterior hallways that overlook the parking area in the center.  The facility is very well kept up and updated inside and out.  The rooms:There is only a shower stall, no tub, in the bathrooms. Housekeeping was good, although they come by later in the afternoon which makes an early check-in a problem.  There was a strong smell of air freshener the first day, but opening the windows and turning the fan on took care of that.  There are a mini-fridge and microwave in the rooms.  The bed was comfortable but the pillows were small.  There were many cable TV stations available.  The shower drain was very slow the first day, but when we let the office know about it they sent a maintenance person right away to fix it.Amenities:Breakfast is from 7 - 10 am daily and consists of coffee, orange juice, and prepackaged pastries.  Parking is free, but limited in spaces.  We were able to find a parking space each night though while we were there.  It can be a tight squeeze to exit the parking area (you have to go out a narrow alley) if you have a longer vehicle.Safety and Security:We had no problems with safety/security, although I would recommend a second floor room as the first floor rooms have bathroom windows that overlook the alley behind the hotel. The first night I woke up at 4 AM to hear someone in the alley below behind the hotel because I had the bathroom window open, but I did not hear any other late night activity.Nearby:   There is a nice Von's Supermarket one block away which I used a lot for inexpensive meals.  There are a couple of cafes nearby and a Subway sub shop across the street as well.  The beach is a simple three block walk away and the Aquarium and Convention Center/Performing Arts Center are about five to six blocks away.Of note:  There is a high-rise building being constructed a block away (as of summer 2015) and they begin their construction shift at 7 AM.  I am an early riser, but those wishing to sleep in may want to consider rooms on the south side of the property and keeping their windows closed.All in all, the free parking, free but limited breakfast, the location, friendly staff, and well kept facilities make this a good value option for the area.  We would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one week for a conference at the Long Beach Convention Center, which is about 5-6 blocks away (a half mile walking from door to door).  This is an older style, two story property with exterior hallways that overlook the parking area in the center.  The facility is very well kept up and updated inside and out.  
+The rooms:
+There is only a shower stall, no tub, in the bathrooms. Housekeeping was good, although they come by later in the afternoon which makes an early check-in a problem.  There was a strong smell of air freshener the first day, but opening the windows and turning the fan on took care of that.  There are a mini-fridge and microwave in the rooms.  The bed was comfortable but the pillows were small.  There were many cable TV stations available.  The shower drain was very slow the first day, but when we let the office know about it they sent a maintenance person right away to fix it.
+Amenities:
+Breakfast is from 7 - 10 am daily and consists of coffee, orange juice, and prepackaged pastries.  Parking is free, but limited in spaces.  We were able to find a parking space each night though while we were there.  It can be a tight squeeze to exit the parking area (you have to go out a narrow alley) if you have a longer vehicle.
+Safety and Security:
+We had no problems...We stayed here for one week for a conference at the Long Beach Convention Center, which is about 5-6 blocks away (a half mile walking from door to door).  This is an older style, two story property with exterior hallways that overlook the parking area in the center.  The facility is very well kept up and updated inside and out.  The rooms:There is only a shower stall, no tub, in the bathrooms. Housekeeping was good, although they come by later in the afternoon which makes an early check-in a problem.  There was a strong smell of air freshener the first day, but opening the windows and turning the fan on took care of that.  There are a mini-fridge and microwave in the rooms.  The bed was comfortable but the pillows were small.  There were many cable TV stations available.  The shower drain was very slow the first day, but when we let the office know about it they sent a maintenance person right away to fix it.Amenities:Breakfast is from 7 - 10 am daily and consists of coffee, orange juice, and prepackaged pastries.  Parking is free, but limited in spaces.  We were able to find a parking space each night though while we were there.  It can be a tight squeeze to exit the parking area (you have to go out a narrow alley) if you have a longer vehicle.Safety and Security:We had no problems with safety/security, although I would recommend a second floor room as the first floor rooms have bathroom windows that overlook the alley behind the hotel. The first night I woke up at 4 AM to hear someone in the alley below behind the hotel because I had the bathroom window open, but I did not hear any other late night activity.Nearby:   There is a nice Von's Supermarket one block away which I used a lot for inexpensive meals.  There are a couple of cafes nearby and a Subway sub shop across the street as well.  The beach is a simple three block walk away and the Aquarium and Convention Center/Performing Arts Center are about five to six blocks away.Of note:  There is a high-rise building being constructed a block away (as of summer 2015) and they begin their construction shift at 7 AM.  I am an early riser, but those wishing to sleep in may want to consider rooms on the south side of the property and keeping their windows closed.All in all, the free parking, free but limited breakfast, the location, friendly staff, and well kept facilities make this a good value option for the area.  We would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r276586203-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>276586203</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>It worked for what we needed</t>
+  </si>
+  <si>
+    <t>We had a conference at the Convention Center and decided to save a few bucks and walk the half mile each way.  The room was clean and always felt very safe.  It was also conveniently located about a block from a decent grocery store and the rooms had fridges and microwaves.  That helped too!  On the downside, cleaning staff did not come until 3-4 pm each day which created problems.  The TV was not reliable and internet must have been connected because you had to log in each time you tried to use your computer.  Our shower leaked big time and the answer we received was to just put down towels.  Also, got a call after 10 PM from front desk on last night that woke us up to confirm our telephone number.  Ugh!  There was some basic packaged rolls and coffee and OJ in lobby.  You are also only a block from the ocean and a great beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We had a conference at the Convention Center and decided to save a few bucks and walk the half mile each way.  The room was clean and always felt very safe.  It was also conveniently located about a block from a decent grocery store and the rooms had fridges and microwaves.  That helped too!  On the downside, cleaning staff did not come until 3-4 pm each day which created problems.  The TV was not reliable and internet must have been connected because you had to log in each time you tried to use your computer.  Our shower leaked big time and the answer we received was to just put down towels.  Also, got a call after 10 PM from front desk on last night that woke us up to confirm our telephone number.  Ugh!  There was some basic packaged rolls and coffee and OJ in lobby.  You are also only a block from the ocean and a great beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r274848990-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>274848990</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Much better than expected!</t>
+  </si>
+  <si>
+    <t>Clarissa was very friendly on the phone when I called for a last minute reservation. Although she only had 2 rooms left, she gave me a great rate on a room that was very comfortable. I got a great nights sleep before my meeting. I wouldn't hesitate to stay at this Rodeway Inn again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Clarissa was very friendly on the phone when I called for a last minute reservation. Although she only had 2 rooms left, she gave me a great rate on a room that was very comfortable. I got a great nights sleep before my meeting. I wouldn't hesitate to stay at this Rodeway Inn again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r252282375-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>252282375</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Decent place to stay for business trip</t>
+  </si>
+  <si>
+    <t>My husband had to attend a conference in Long Beach so we would only be there for 3 nights.  Check in was quick and efficient and they even had our room ready early for us.  The room was a decent size and the the wifi was really good.  The bathroom was disappointing however.  There was some sort of red substance that was splattered along the outside bottom of the toilet.  There was also a wad of hair stuck in the hair dryer.  The shower was very tight (and I'm pretty small) and the shower head in ours was stuck at an awkward angle.  We literally had to stand with our backs flushed against the back of the shower.  The walls/windows were a little thin so we could hear the neighbors talking/running around but it wasn't so bad to keep us up at night.I know they had complimentary continental breakfast but we didn't see it or partake in it.All in all, it was considerably less expensive than the bigger hotels in the area and it was fine for the business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My husband had to attend a conference in Long Beach so we would only be there for 3 nights.  Check in was quick and efficient and they even had our room ready early for us.  The room was a decent size and the the wifi was really good.  The bathroom was disappointing however.  There was some sort of red substance that was splattered along the outside bottom of the toilet.  There was also a wad of hair stuck in the hair dryer.  The shower was very tight (and I'm pretty small) and the shower head in ours was stuck at an awkward angle.  We literally had to stand with our backs flushed against the back of the shower.  The walls/windows were a little thin so we could hear the neighbors talking/running around but it wasn't so bad to keep us up at night.I know they had complimentary continental breakfast but we didn't see it or partake in it.All in all, it was considerably less expensive than the bigger hotels in the area and it was fine for the business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r245394962-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>245394962</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Excellent budget motel</t>
+  </si>
+  <si>
+    <t>Affordable, very clean and tidy rooms and property, friendly staff, free parking, excellent downtown location, free and reliable internet, nice in-room amenities. Within walking distance to a number of locations, including a grocery store (the room included a fridge). Our room was a bit dark, though. But overall, this property is an excellent representation of the Rodeway brand.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r240965845-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>240965845</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>A Good Stay</t>
+  </si>
+  <si>
+    <t>We visit our son in Long Beach and have stayed at Rodeway Long Beach 2 years in a row....clean, affordable, good staff.  And for an inexpensive breakfast, go to 6th and Atlantic...a retro, local busy restaurant where you can share a huge breakfast--and a lot less $$ than the breakfast place next to Rodeway.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r232921539-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>232921539</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Fresh and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It definitely has a great location, near the beach and harbor. Long Beach is definitely beautiful and worth a visit. I was welcomed friendly. My first step in to the room and it smelled wonderful fresh and like flowers. Mmm..it was definitely a plus for me. Everything was also clean it wasn't just an air freshener.  </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r230949824-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>230949824</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Great value and location</t>
+  </si>
+  <si>
+    <t>Tastefully decorated, clean, and comfortable in a great location within walking distance of the beach, Shoreline Village, Convention Center, Aquarium of the Pacific, grocery store with a Starbucks, and many restaurants.  Great breakfast and lunch right next door at The Breakfast Bar. Refrigerators and microwaves in the room.  My only reservation about rating this a 5 is that the free breakfast is just prepackaged pastries and the coffee is a Bunn coffee dispenser. The staff was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r230020963-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>230020963</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Clean, Clean, Clean</t>
+  </si>
+  <si>
+    <t>Clean and quiet motel. Walking distance to the Convention Center, restaurants and night life. Lovely and responsive staff. We couldn't have been happier. Nice to have such a positive experience without paying hotel prices. A great experience and a great value.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r223899523-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>223899523</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Great Conference Experience</t>
+  </si>
+  <si>
+    <t>Just spent 5 nights &amp; 6 days in Long Beach! What I was most impressed with at Rodeway Inn Long Beach was the cleanliness of the room without the harsh chemical smells that normally make my trip miserable. I was able to wear my contact lenses the entire trip without any "toxic" headaches. I will definitely recommend to others traveling to Long Beach Convention Center! Thank you, owner, Tina P.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just spent 5 nights &amp; 6 days in Long Beach! What I was most impressed with at Rodeway Inn Long Beach was the cleanliness of the room without the harsh chemical smells that normally make my trip miserable. I was able to wear my contact lenses the entire trip without any "toxic" headaches. I will definitely recommend to others traveling to Long Beach Convention Center! Thank you, owner, Tina P.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r223643181-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>223643181</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I was here 7 nights for the August 2014 Shaklee Convention.  The rooms were very clean and comfortable, recently updated, and quiet.  All of the staff I interacted with were extremely pleasant and accommodating.  I enjoyed having coffee &amp; hot water available all day, and the orange juice, muffins, and danishes in the morning were fresh. (I rarely buy pastries, so the danishes were a treat!) This hotel is a short walk to the Convention Center and Arena, restaurants, the Aquarium, and other attractions.  Bus service is available and easy to use.  I was travelling with a female colleague, and we both felt comfortable and safe, walking to and from the hotel.  I would highly recommend this hotel to others, as my stay was very enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I was here 7 nights for the August 2014 Shaklee Convention.  The rooms were very clean and comfortable, recently updated, and quiet.  All of the staff I interacted with were extremely pleasant and accommodating.  I enjoyed having coffee &amp; hot water available all day, and the orange juice, muffins, and danishes in the morning were fresh. (I rarely buy pastries, so the danishes were a treat!) This hotel is a short walk to the Convention Center and Arena, restaurants, the Aquarium, and other attractions.  Bus service is available and easy to use.  I was travelling with a female colleague, and we both felt comfortable and safe, walking to and from the hotel.  I would highly recommend this hotel to others, as my stay was very enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r221668220-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>221668220</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>clean hotel</t>
+  </si>
+  <si>
+    <t>I stayed here two night with my family in 2 beds room. very clean and nearly remodeled hotel. Friendly staff. The second room had a full bed and was very small. So, if you travel in a group of 4 adults, you might need to consider a different hotel or book 2  one-bedrooms. The reception room was very small and can hold just a couple of people. The breakfast was below average. Suprisingly parking was not an issue. Location was excellen: a block from a beach and a few blocks from a free shuttle bus "Passport" to go to main attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here two night with my family in 2 beds room. very clean and nearly remodeled hotel. Friendly staff. The second room had a full bed and was very small. So, if you travel in a group of 4 adults, you might need to consider a different hotel or book 2  one-bedrooms. The reception room was very small and can hold just a couple of people. The breakfast was below average. Suprisingly parking was not an issue. Location was excellen: a block from a beach and a few blocks from a free shuttle bus "Passport" to go to main attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r210487774-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>210487774</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Great location with wonderful hospitality</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. We spontaneously decided to escape to Long Beach for the weekend and found this very affordable hotel, so we weren't expecting much. It was a large and very clean room. The bathroom was also quite nice. The staff were very helpful the entire time and even left a welcome present with some chocolates. I would definitely stay here again the next time we are there. It is also very close to the beach and many of the attractions in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised with this hotel. We spontaneously decided to escape to Long Beach for the weekend and found this very affordable hotel, so we weren't expecting much. It was a large and very clean room. The bathroom was also quite nice. The staff were very helpful the entire time and even left a welcome present with some chocolates. I would definitely stay here again the next time we are there. It is also very close to the beach and many of the attractions in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r210487519-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>210487519</t>
+  </si>
+  <si>
+    <t>Very impressed and close to the beach</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to escape to Long Beach for a nice little weekend away, and although I was expecting the worst for such a moderately priced hotel within walking distance of the beach, I was very surprised by the "newness" of this hotel. Everything was clean and bright, and I felt very comfortable there. I would highly recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I wanted to escape to Long Beach for a nice little weekend away, and although I was expecting the worst for such a moderately priced hotel within walking distance of the beach, I was very surprised by the "newness" of this hotel. Everything was clean and bright, and I felt very comfortable there. I would highly recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r205695697-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>205695697</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Conference Stay</t>
+  </si>
+  <si>
+    <t>What a pleasent surprise when my staff and I stayed during our Head Start Conference.  Rooms were clean and comfortable.  Hotel staff were friendly and helpful.  Could walk to the beach and convention center.  Will book to stay here if I personally travel to Long Beach.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r199137112-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>199137112</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Nice one</t>
+  </si>
+  <si>
+    <t>The location was perfect, our room was brand new ( the bed was queen size...ugh...only negative)Staff was nice, everything was really good.The restaurants and the beach is really a short stroll away, You can choose this inn, you won't be disappointed:)</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r195496654-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>195496654</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We (2 couples-4 people) were cruising out of San Pedro we had booked 2 rooms at this great motel in Long Beach for the end of January, 2014. We had no idea where to stay in Long Beach but this place is just so convenient to everything. The owners and their staff are so helpful and the whole place is kept so clean and tidy. Tea, coffee and orange juice  is provided from the front office at anytime and breakfast consists of a choice Danish Pastries and muffins available from 7am until 10 or 10.30am and these can be warmed in the microwave in your room and it is free.Vons supermarket is a short walk away, Subway is just across the street, a good fish and chip restaurant (Pier 76, 455 E Ocean Bvde) is just 5 mins walk. The free "hop on-hop off" bus is about 8-10 mins stroll away on Long Beach Bvde and this gives you a good look at all of the suburb. It also takes you to the Queen Mary and other places of interest. Great second hand bookshop opposite the Convention Centre in South Pine Street.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>We (2 couples-4 people) were cruising out of San Pedro we had booked 2 rooms at this great motel in Long Beach for the end of January, 2014. We had no idea where to stay in Long Beach but this place is just so convenient to everything. The owners and their staff are so helpful and the whole place is kept so clean and tidy. Tea, coffee and orange juice  is provided from the front office at anytime and breakfast consists of a choice Danish Pastries and muffins available from 7am until 10 or 10.30am and these can be warmed in the microwave in your room and it is free.Vons supermarket is a short walk away, Subway is just across the street, a good fish and chip restaurant (Pier 76, 455 E Ocean Bvde) is just 5 mins walk. The free "hop on-hop off" bus is about 8-10 mins stroll away on Long Beach Bvde and this gives you a good look at all of the suburb. It also takes you to the Queen Mary and other places of interest. Great second hand bookshop opposite the Convention Centre in South Pine Street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r193702219-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>193702219</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Very nice stay, pleasant, professional staff.  Location is perfect, just a couple blocks away from the marina.  Clean, nice rooms.  Parking a little cramped but otherwise very pleasant.  Close to restaurants and stores.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r186443283-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>186443283</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Best Rodeway Ever!</t>
+  </si>
+  <si>
+    <t>I've stayed in a lot of Choice Hotels and other hotels and this one is the best one ever!I wasn't expecting much when I booked online but was pleasantly surprised with the room and the front desk staff.They went out of their way to ensure I had a comfortable experience. Once I checked in and went to my room the front desk clerk stopped by my room a few minutes later to give me a welcome gift! That's never happened to me in the hundreds of hotels I've stayed at. When I checked out the next day they actually gave me a departing gift as well! Wow!The desk clerks were very attentive and polite and they truly cared about me.The room was perfect. Newly decorated and clean as a whistle. I could not find anything that was wrong with the room (and I looked hard). And that's never happened before!The last time I stayed at a Rodeway was in St George, UT and it was a dump!This hotel is probably in the top three of all the hotels I've ever stayed in my life!Kudos to the management and staff at the Rodeway Inn in Long Beach, CA!  Highest rating ever! And the price was great too. Thank you so much!Don W.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed in a lot of Choice Hotels and other hotels and this one is the best one ever!I wasn't expecting much when I booked online but was pleasantly surprised with the room and the front desk staff.They went out of their way to ensure I had a comfortable experience. Once I checked in and went to my room the front desk clerk stopped by my room a few minutes later to give me a welcome gift! That's never happened to me in the hundreds of hotels I've stayed at. When I checked out the next day they actually gave me a departing gift as well! Wow!The desk clerks were very attentive and polite and they truly cared about me.The room was perfect. Newly decorated and clean as a whistle. I could not find anything that was wrong with the room (and I looked hard). And that's never happened before!The last time I stayed at a Rodeway was in St George, UT and it was a dump!This hotel is probably in the top three of all the hotels I've ever stayed in my life!Kudos to the management and staff at the Rodeway Inn in Long Beach, CA!  Highest rating ever! And the price was great too. Thank you so much!Don W.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r186182327-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>186182327</t>
+  </si>
+  <si>
+    <t>11/28/2013</t>
+  </si>
+  <si>
+    <t>PLEASANTLY SURPRISED</t>
+  </si>
+  <si>
+    <t>I've stayed in other Rodeway Inns before, and I certainly wasn't expecting anything above average. Their continental breakfast consisted of muffins and pastrys in cellophane and unspecatular coffee. The clerks appeared a little ashamed of it. There is no separate outside sink. Nevertheless, I've also stayed at the Westin in Long Beach, which is a luxury hotel right on Ocean Blvd. The Rodeway Inn came surprisingly close to it. We did not pay extra for fridge or micro. I had a roommate for my stay and I did not feel crowded in the least. It was a really good experience!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r184615354-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>184615354</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Good clean room, not so clean bathroom, basic breakfast</t>
+  </si>
+  <si>
+    <t>Place is not big, reception/breakfast area is very small. Room was clean and looked great. Bathroom was clean and functional. Water pressure in shower was great. Windows in room and bathroom opens to not so clean back ally. No exhaust in bathroom. Small microwave came handy to warm things up while fridge was small and seems to did not cool anything and it was not running when got there. Bed had nice linen but mattresses are not very comfortable and seems of poor quality. There is no breakfast area and hotel provided few danish, muffins, juice and coffe to take to you room. Overall good but would like to find better value at 100$MoreShow less</t>
+  </si>
+  <si>
+    <t>Place is not big, reception/breakfast area is very small. Room was clean and looked great. Bathroom was clean and functional. Water pressure in shower was great. Windows in room and bathroom opens to not so clean back ally. No exhaust in bathroom. Small microwave came handy to warm things up while fridge was small and seems to did not cool anything and it was not running when got there. Bed had nice linen but mattresses are not very comfortable and seems of poor quality. There is no breakfast area and hotel provided few danish, muffins, juice and coffe to take to you room. Overall good but would like to find better value at 100$More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r181573720-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>181573720</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>could be better</t>
+  </si>
+  <si>
+    <t>This is a pretty average motel, but the bed in my room was in very poor condition: pretty broken down.  Also, the WIFI worked very badly: slow and intermittant.  I did not try the breakfast.  The location is handy to the port.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This is a pretty average motel, but the bed in my room was in very poor condition: pretty broken down.  Also, the WIFI worked very badly: slow and intermittant.  I did not try the breakfast.  The location is handy to the port.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r180350024-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180350024</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>Small but ckean rooms, staff friendly</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening and picked this motel rabdomly. Rate was a bit high to my opinion ($115 inc tax). Girl at check in was very friendly and nice. Parking was good, safe and off the streets. Staff was overlooking all of the secured parkinglot. We requested a double queen and got a room with two beds in two separate spaces. Nice beds, clean and comfortable but the two spaces were extremely small. Not a problem to us as we were just there for one night. But it would not be my choice if I would have to stay more nights. Breakfast was coffee/tea and some sweet rolls/danish that are served in the tiny 'lobby' and have to be taken into your room. Where you have to eat at your bed. Overall not bad for sleep-shower-leave. But not recommended for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening and picked this motel rabdomly. Rate was a bit high to my opinion ($115 inc tax). Girl at check in was very friendly and nice. Parking was good, safe and off the streets. Staff was overlooking all of the secured parkinglot. We requested a double queen and got a room with two beds in two separate spaces. Nice beds, clean and comfortable but the two spaces were extremely small. Not a problem to us as we were just there for one night. But it would not be my choice if I would have to stay more nights. Breakfast was coffee/tea and some sweet rolls/danish that are served in the tiny 'lobby' and have to be taken into your room. Where you have to eat at your bed. Overall not bad for sleep-shower-leave. But not recommended for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r178873545-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>178873545</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Best Value in LA Area.</t>
+  </si>
+  <si>
+    <t>First time in LA traveling up from San Diego after cross country road trip and later flying out of LAX. One night stay on September 20th. Check in went smoothly and night staff accepted outdated coupon from HotelSaver booklet which made it a great value at $92 per night including the outrageous CA taxes. Room was newly renovated and well appointed and clean. Room included refrigerator and microwave. No coffee pot but no problem for me as I don't drink coffee but if you need coffee the front desk keeps coffee going all the time. As I said the staff both days were very friendly and I was very happy with the courtyard parking for my rental car. Location was great only one block to the wide, open, free and clean Long Beach and only two blocks to the Pike, the Aquarium and the Queen Mary.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>First time in LA traveling up from San Diego after cross country road trip and later flying out of LAX. One night stay on September 20th. Check in went smoothly and night staff accepted outdated coupon from HotelSaver booklet which made it a great value at $92 per night including the outrageous CA taxes. Room was newly renovated and well appointed and clean. Room included refrigerator and microwave. No coffee pot but no problem for me as I don't drink coffee but if you need coffee the front desk keeps coffee going all the time. As I said the staff both days were very friendly and I was very happy with the courtyard parking for my rental car. Location was great only one block to the wide, open, free and clean Long Beach and only two blocks to the Pike, the Aquarium and the Queen Mary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r176303102-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>176303102</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Basic but clean</t>
+  </si>
+  <si>
+    <t>Staff are very friendly here. The location is excellent &amp; an easy walk to most things. Supermarket at end of street, Subway across from it &amp; about 10-15 mins walk to the Pike (entertainment part) &amp; the pier!Downsides of this are the breakfast included is extremely basic. As in muffin/pastry &amp; that is it. Also, the safe key is not included in the price &amp; you have to pay $2 per day to rent the key. And the air conditioning unit is poor. We had the 4 person room &amp; there is only 1 air conditioning unit in 1 of the rooms. It was absolutely boiling. to the point that we had to buy a fan for the other room. The bathroom is very basic too &amp; very small.I would use this motel again but order 2 single rooms next time!Plus sides - free wifi &amp; free parking. And this was available the whole time during our stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff are very friendly here. The location is excellent &amp; an easy walk to most things. Supermarket at end of street, Subway across from it &amp; about 10-15 mins walk to the Pike (entertainment part) &amp; the pier!Downsides of this are the breakfast included is extremely basic. As in muffin/pastry &amp; that is it. Also, the safe key is not included in the price &amp; you have to pay $2 per day to rent the key. And the air conditioning unit is poor. We had the 4 person room &amp; there is only 1 air conditioning unit in 1 of the rooms. It was absolutely boiling. to the point that we had to buy a fan for the other room. The bathroom is very basic too &amp; very small.I would use this motel again but order 2 single rooms next time!Plus sides - free wifi &amp; free parking. And this was available the whole time during our stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r173954906-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>173954906</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Will always use this hotel for Long Beach stay</t>
+  </si>
+  <si>
+    <t>This was my second trip to the Rodeway Inn in Long Beach.  I chose this hotel because it was the only reasonably priced one in the area with free parking.  A friend and I were attending a conference at the Long Beach Arena and this hotel ended up being the perfect choice the first time I booked, so, of course when we returned I chose this hotel again and will continue to stay here in the future.  The room was perfect with a separate sleeping areas with one room with a queen and one room with a double.  It gave us privacy while allowing us to share a room.  The staff is wonderful, very friendly and very welcoming.  They also offer coffee and tea 24 hours and danish in the morning.  I will always stay here when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This was my second trip to the Rodeway Inn in Long Beach.  I chose this hotel because it was the only reasonably priced one in the area with free parking.  A friend and I were attending a conference at the Long Beach Arena and this hotel ended up being the perfect choice the first time I booked, so, of course when we returned I chose this hotel again and will continue to stay here in the future.  The room was perfect with a separate sleeping areas with one room with a queen and one room with a double.  It gave us privacy while allowing us to share a room.  The staff is wonderful, very friendly and very welcoming.  They also offer coffee and tea 24 hours and danish in the morning.  I will always stay here when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r173505089-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>173505089</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>A very nice stay</t>
+  </si>
+  <si>
+    <t>The motel is in a great location. It is just blocks from the Passport bus, nice cafes and a large grocery store. The room was comfortable and perfect for my stay. The front desk staff were also welcoming.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r167694335-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>167694335</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Average minus....</t>
+  </si>
+  <si>
+    <t>Cubby hole motel....Check in 3...room wasnt ready til 445.  The rooms are small and parking is tight.  Check in/front desk is tiny w/ bullet proof glass?.  Breakfast consisted of coffee, OJ and otis spunkenmeyer muffins...weak.  Bed not so good for wife...worn and sagging to middle.  AC unit loud and annoying.  Parked cars a foot from your door.  Fair location.  Wont be going back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r167206520-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>167206520</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice clean hotel ,  great location and the rooms are wonderful with plenty of complementary toiletries the only thing that let it down albeit very very slightly was no coffee in the rooms.  Would definitely stay here again location was amazing for everything you would want to do</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r165796159-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>165796159</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Awesome toiletries.The "1 queen bed - 1 double bed" room is awesome!  Has a separate room for one of the beds!  It's like a mini suite.Breakfast is horrible, I wish my rate was a little lower, but otherwise, it's hard to say a single thing bad about this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r161496539-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>161496539</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Don't let the outside looks deceive you.</t>
+  </si>
+  <si>
+    <t>They've done a great Job renovating this hotel. The inside rooms are very modern. The bathrooms are up-to-date as well. Only complaint are the commodes are a little small. The beds were extremely comfortable. Would stay there again in a heartbeat. Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>They've done a great Job renovating this hotel. The inside rooms are very modern. The bathrooms are up-to-date as well. Only complaint are the commodes are a little small. The beds were extremely comfortable. Would stay there again in a heartbeat. Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r161068522-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>161068522</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Helpful staff, good location</t>
+  </si>
+  <si>
+    <t>We arrived to check in about 09:30 after an o/night flight and we were given a room at no extra cost.rooms are kept clean and the toiletries are kept well stocked. Location is quiet and in easy walking distance of a supermarket and lots of restaurants and coffee shops. Walking distance to Walmart and downtown as well about 15 min. Recommend this motel if you are looking for a good budget motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We arrived to check in about 09:30 after an o/night flight and we were given a room at no extra cost.rooms are kept clean and the toiletries are kept well stocked. Location is quiet and in easy walking distance of a supermarket and lots of restaurants and coffee shops. Walking distance to Walmart and downtown as well about 15 min. Recommend this motel if you are looking for a good budget motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r160794705-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>160794705</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Clean and a great location</t>
+  </si>
+  <si>
+    <t>I visited Long Beach on a Saturday getaway form Los Angeles with my girlfriend and when we arrived the room was ready about 2 hours early. The front desk lady was very nice and when we entered my room I was surprised at how nice and clean it was given the price. Once we were settled in we were able to walk everywhere from downtown to the waterfront easily. The hotel was a great value and it made the trip very easy and enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I visited Long Beach on a Saturday getaway form Los Angeles with my girlfriend and when we arrived the room was ready about 2 hours early. The front desk lady was very nice and when we entered my room I was surprised at how nice and clean it was given the price. Once we were settled in we were able to walk everywhere from downtown to the waterfront easily. The hotel was a great value and it made the trip very easy and enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155940580-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>155940580</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t>I stayed at the roadeway for two nights recently. I was very surprised at house immaculate the room, reception and other parts of the complex was considering the very reasonable rates per room. Parking was free and always available. free breakfast also a big plus. The inn is located in a perfect location close to the attractions of long beach. I would stay there again if visiting again. Just brilliant! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the roadeway for two nights recently. I was very surprised at house immaculate the room, reception and other parts of the complex was considering the very reasonable rates per room. Parking was free and always available. free breakfast also a big plus. The inn is located in a perfect location close to the attractions of long beach. I would stay there again if visiting again. Just brilliant! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155117610-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>155117610</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Hidden gem!</t>
+  </si>
+  <si>
+    <t>Great rooms with excellent location...walking distance to Queen Mary and Aquarium of the Pacific. Friendly and helpful staff. Clean and spacious rooms. Would definitely stay again!! Very kid friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great rooms with excellent location...walking distance to Queen Mary and Aquarium of the Pacific. Friendly and helpful staff. Clean and spacious rooms. Would definitely stay again!! Very kid friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155019413-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>155019413</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Great place near LBCC</t>
+  </si>
+  <si>
+    <t>This is a great hotel a 15 minute walk from the Long Beach Convention Center. My room had a refrigerator and microwave (great for warming pastries from the free continental breakfast). There's also a nice flat screen TV with HBO, a desk for your laptop, and free Wifi. It's not a new hotel, but it's very confortable and well maintained. Lots of nice ammeneties like an iron and ironing board, a hair dryer, and a generous assortment of travel helpers (toothbrush, razor, sewing kit...) in the bathroom. Be a little careful if you have an RV, the parking lot is kind of tight. Otherwise, you can't go wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel a 15 minute walk from the Long Beach Convention Center. My room had a refrigerator and microwave (great for warming pastries from the free continental breakfast). There's also a nice flat screen TV with HBO, a desk for your laptop, and free Wifi. It's not a new hotel, but it's very confortable and well maintained. Lots of nice ammeneties like an iron and ironing board, a hair dryer, and a generous assortment of travel helpers (toothbrush, razor, sewing kit...) in the bathroom. Be a little careful if you have an RV, the parking lot is kind of tight. Otherwise, you can't go wrong.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r151666742-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>151666742</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>A Surprise</t>
+  </si>
+  <si>
+    <t>I didn't know that Rodeway Inn's came with this nice of rooms.  The hotel is an older property but well and lovingly remodeled and maintained.  It is clearly a " locals" secret as almost all of the cars in the parking lot during my stay had California plates. It was a good walk to the convention center, but taxi to or from was $5 so you still saved considerable money over the hotels near the center.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r148412163-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>148412163</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>This kiwi is pleased</t>
+  </si>
+  <si>
+    <t>Recently my great friends visited Long Beach and they wouldn't stop raving about how beautiful the town was. Unfortunately for them, they stayed at a motel that was rubbish. It was so awful that they changed accommodations the next night. They moved to the Rodeway Inn because it was near the town centre. During my stay at the Rodeway, we were pleased. The hotel was quite lovely and good fun! The lady that worked in the front gave wonderful recommendations of nearby places to eat. This inn is literally just minutes from downtown, which was convenient for my wife and me. This hotel went above and beyond with location, staff and comfort. I can most definitely say that I will come back again. Cheers to Rodeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Recently my great friends visited Long Beach and they wouldn't stop raving about how beautiful the town was. Unfortunately for them, they stayed at a motel that was rubbish. It was so awful that they changed accommodations the next night. They moved to the Rodeway Inn because it was near the town centre. During my stay at the Rodeway, we were pleased. The hotel was quite lovely and good fun! The lady that worked in the front gave wonderful recommendations of nearby places to eat. This inn is literally just minutes from downtown, which was convenient for my wife and me. This hotel went above and beyond with location, staff and comfort. I can most definitely say that I will come back again. Cheers to Rodeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r148039435-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>148039435</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>Wonderful time in Long Beach</t>
+  </si>
+  <si>
+    <t>We spent the weekend here on our way down to San Diego and was very happy that we had stayed here at the Rodeway Inn. This property in Long Beach was small, but had really clean and comfortable rooms. The bed was very comfortable and the free internet was quite handy. Our room had a flat panel television as well as modern, up to date furnishings. We went to a market up the street to buy some snacks and sundry and had used the small refrigerator and microwave in the room. The small amenities in the bathroom were quite nice as well. Overall, this property was quite nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r137411231-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>137411231</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>very clean good location</t>
+  </si>
+  <si>
+    <t>It is a motel, and the client photos on this site are more accurate of the place than the professional ones.  It is VERY clean, comfortable, bare-bones.  Given the location so close to the Convention centre, it is good value.  The desk clerk is very helpful.  If you want hotel quality...not here.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r136985239-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>136985239</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>At the last minute, I needed a room near the convention center in Long Beach and had to stick to a budget.  Stayed here four years ago and this place needed some TLC however the price was right.  Not sure if there is new management however the place was updated.  My room was very clean plus the beds and pillows very comfortable..  The staff was very helpful when I asked for directions and kept my luggage all day after I checked out.  Location was great as it is just a short walk to the convention center.  Will be back next year!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r136838632-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>136838632</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>No parking space available and rude receptionist</t>
+  </si>
+  <si>
+    <t>We arrived around 8pm and were unable to find any available parking at the hotel...limited number of spaces were all taken.  We parked down the street and walked up to the receptionist who was seated behind a protective window talking to her friend in the office.  We politely asked if there was any overflow parking in the back of the hotel, and she was very rude in her response, quoting the reservation details (which admittedly we did not notice when we booked the hotel) that said "Limited complimentary parking," and said that we could park at the hotel across the street for an extra $10.  Given the inconvenience and her poor attitude, I asked to speak to her manager, and she replied that he wasn't available. We ended up going down the street to one of the convention center hotels, which for $30 more in price had much nicer amenities (pool, hot tub, plenty of parking, and very nice customer service) and was in a much nicer neighborhood. MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived around 8pm and were unable to find any available parking at the hotel...limited number of spaces were all taken.  We parked down the street and walked up to the receptionist who was seated behind a protective window talking to her friend in the office.  We politely asked if there was any overflow parking in the back of the hotel, and she was very rude in her response, quoting the reservation details (which admittedly we did not notice when we booked the hotel) that said "Limited complimentary parking," and said that we could park at the hotel across the street for an extra $10.  Given the inconvenience and her poor attitude, I asked to speak to her manager, and she replied that he wasn't available. We ended up going down the street to one of the convention center hotels, which for $30 more in price had much nicer amenities (pool, hot tub, plenty of parking, and very nice customer service) and was in a much nicer neighborhood. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r133468862-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>133468862</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Empressed by this little motel</t>
+  </si>
+  <si>
+    <t>This was a very nice Rodeway Inn. The rooms were clean and quite. The beds were comfortable and there were plenty of little amenities in the shower. Plus there was free wifi and breakfast all for a wonderful price.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r133392251-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>133392251</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Another wonderful stay.</t>
+  </si>
+  <si>
+    <t>My family and I always travel to Long Beach because it is the center of the cities welove most in California. We always stay at the Rodeway Inn because the rooms arealways renovated, so whenever we come, we can always expect clean and modernrooms. Our visit this year didn’t disappoint. The check in and check out process wasvery quick and efficient. I recommend this motel to every family.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r129953039-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>129953039</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Rodeway Inn in Long Beach</t>
+  </si>
+  <si>
+    <t>We got to our room very early after our Cruise was super happy when they had a room early for us!! Good location close to beach and small walk to other tourist locations. People were very nice and helpful. Room are small but had nice amenities. The beds were very comfortable. We enjoyed our stay at this property.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r124629215-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>124629215</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>very clean</t>
+  </si>
+  <si>
+    <t>its a great place to stay clean comfortable, clean fireplace n great service quite n close to town for dinning n shopping  plumber dave</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r123888068-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>123888068</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Old motel</t>
+  </si>
+  <si>
+    <t>My overall impression was poor.  The motel was old and dated.  the rooms are small, with only one nightstand.  No place to put luggage.  The bed was excellent.  There is a fridge and microwave.I was not comfortable here. My husband felt it was fine.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r120108687-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>120108687</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Super clean and great location!</t>
+  </si>
+  <si>
+    <t>The hotel was super clean and convenient. The beds were very comfortable and the bathroom amenities were top rate. The refrigerator and microwave was a nice touch and the flat panel television just added more of a good feeling for this hotel. Everything was in its place and clean as well. The person at the front desk was very pleasant and helpful, asked questions which lead to a discount. WIFI worked well, Free Breakfast was minimal but was enough to get me going.  Good value. I got more than I expected.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117534808-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117534808</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Comfortable stay. Would return if in the area.</t>
+  </si>
+  <si>
+    <t>I spend 2 nights last week while I was here in Long Beach. The room had a pleasent smell when I walked in. It was clean and modern looking. The refrigerator and microwave as well the flat panel TV was a nice touch. The bed was comfortable as well. Parking was in short supply though; They did recommend a public lot that charged $7. Luckily didn't had to use it. I was satisfied with my stay here and would come back to this Inn when I'm in Long Beach.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117445301-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117445301</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>Nice Inn. Enjoyed my stay!</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay here while I was in Long Beach. The room was very modern and super clean. Like the reviews early, the bed was very comfortable. I too had overslept and had to ask for a late checkout.The Rodeway Inn was quite nice for us, super clean and comfortable and reasonably priced as well!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117002480-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117002480</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Almost slept through check out.</t>
+  </si>
+  <si>
+    <t>I was actually very happy here.Rooms are very clean, updated, and location was great. FRE parking !  Super pleased. So comfortable we almost slept through Check out and that never happens. We couldn't hear hardly anything that was going on outside our room and it was completely booked. The only thing that was a little disappointing was when we pulled up... Looks like a cheap motel and more than likely only crackheads would be there..... But when you take a closer look it's not at Like that all.  I guess you can't judge A book by its cover. It's actually a well kept place...no trash or filth. I was very pleased. Good rates too as compared to other locations in area. By the way  theres a  flyer in the room for a fantasic pizza place ( forgot the name but you'll know since there's a large laminated flyer) .  It's  freakin great !MoreShow less</t>
+  </si>
+  <si>
+    <t>I was actually very happy here.Rooms are very clean, updated, and location was great. FRE parking !  Super pleased. So comfortable we almost slept through Check out and that never happens. We couldn't hear hardly anything that was going on outside our room and it was completely booked. The only thing that was a little disappointing was when we pulled up... Looks like a cheap motel and more than likely only crackheads would be there..... But when you take a closer look it's not at Like that all.  I guess you can't judge A book by its cover. It's actually a well kept place...no trash or filth. I was very pleased. Good rates too as compared to other locations in area. By the way  theres a  flyer in the room for a fantasic pizza place ( forgot the name but you'll know since there's a large laminated flyer) .  It's  freakin great !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r110440229-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>110440229</t>
+  </si>
+  <si>
+    <t>05/29/2011</t>
+  </si>
+  <si>
+    <t>Quite A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>We were taking an extended road trip around the US to celebrate our retirement and were visiting my sister in Long Beach.  We needed a hotel since she lives in a small condo. I had stayed at the Holiday Inn  - Airport on previous visits, but the price there was not acceptable this time.  The Rodeway was a gamble, but turned out to be a winner!  It was incredibly clean and quiet.  The rooms were a bit small but the size was acceptable.  There didn't seem to be a pool or business center, but since we were visiting family that was not important on this trip.  The free wireless wi fi was  secure, which I find unsual at most hotels. My wife and I stayed 4 nights and couldn't have been more pleased with the facility and the staff.  Don't pass this one up if you want clean, inexpensive, safe, albiet simple, facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>We were taking an extended road trip around the US to celebrate our retirement and were visiting my sister in Long Beach.  We needed a hotel since she lives in a small condo. I had stayed at the Holiday Inn  - Airport on previous visits, but the price there was not acceptable this time.  The Rodeway was a gamble, but turned out to be a winner!  It was incredibly clean and quiet.  The rooms were a bit small but the size was acceptable.  There didn't seem to be a pool or business center, but since we were visiting family that was not important on this trip.  The free wireless wi fi was  secure, which I find unsual at most hotels. My wife and I stayed 4 nights and couldn't have been more pleased with the facility and the staff.  Don't pass this one up if you want clean, inexpensive, safe, albiet simple, facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r86107443-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>86107443</t>
+  </si>
+  <si>
+    <t>11/05/2010</t>
+  </si>
+  <si>
+    <t>Best Hotel Value in Long Beach!</t>
+  </si>
+  <si>
+    <t>Good, safe, clean location downtown, minutes from almost everything including beaches, marina, restaurants, bars, clubs and if you have to work,a biz center across the street. If you choose you can leave your car and walk. Not a walker, take the free Passport bus downtown or for a nominal cost just about anywhere in Long Beach.Priced below other hotels in the area and can't be beat for a visit to Long Beach.If you want a suite with all the amenities, this is not the place.If you want a simple, clean, well maintained albeit older property with a courteous andhelpful staff and owners, this is it. The rooms are a bit small but always spotless.We've slept soundly at least a dozen nights this year and will definitely be back.Best Hotel Value in Long BeachMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Good, safe, clean location downtown, minutes from almost everything including beaches, marina, restaurants, bars, clubs and if you have to work,a biz center across the street. If you choose you can leave your car and walk. Not a walker, take the free Passport bus downtown or for a nominal cost just about anywhere in Long Beach.Priced below other hotels in the area and can't be beat for a visit to Long Beach.If you want a suite with all the amenities, this is not the place.If you want a simple, clean, well maintained albeit older property with a courteous andhelpful staff and owners, this is it. The rooms are a bit small but always spotless.We've slept soundly at least a dozen nights this year and will definitely be back.Best Hotel Value in Long BeachMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r84009686-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>84009686</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Stayed here for the Long Beach marathon.  Room was very clean, bed comfortable and the bathroom done in nice marble.  Had fridge, microwave and  TV. Managed a good night sleep before my race on the comfortable mattress. It's not a Marriott but pleasant nonetheless.  Very convenient to shops and attractions of long beach and felt like a safe area. Very nice staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r58769807-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>58769807</t>
+  </si>
+  <si>
+    <t>03/16/2010</t>
+  </si>
+  <si>
+    <t>Very Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>Quaint little motel within walking distance to everything: Shoreline Village, The Pike, Aquarium, restaurant row on Pine Street, etc. Save your money for the food and fun--restaurants and beach are all just around the corner!  We're somewhat picky...but, with the economy, much more frugal these days!  Hotel is right next door to Best Western, Travelodge, and Marriott and is in a safe area.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r56427713-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>56427713</t>
+  </si>
+  <si>
+    <t>02/18/2010</t>
+  </si>
+  <si>
+    <t>Not the Ritz...but not bad.</t>
+  </si>
+  <si>
+    <t>I paid around $65 per night for a cosy, clean, newly renovated room on the ground floor.  The staff were very helpful in the front office and the parking lot was secure.  Walked to everything in Long Beach.  Its not glamorous but if you just need a bed for the night, its good value.  One complaint was the chemical smell from the cleaning solutions used...enough of the Fabreeze or whatever it is the cleaning staff use !!</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r54236956-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>54236956</t>
+  </si>
+  <si>
+    <t>01/24/2010</t>
+  </si>
+  <si>
+    <t>Clean, friendly, generous - a bargain</t>
+  </si>
+  <si>
+    <t>For the price the hotel was very clean and the bed comfortable. They had fast internet for free as well. Also it was very quick to reach from the Long Beach Convention Center.What I was really amazed by is that even though I booked on line and had a bargain rate, when I had to leave early they gave me a refund for that night I didn't take and were very helpful and friendly about it.I would say this is a great bargain. I will be staying here again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r39028040-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>39028040</t>
+  </si>
+  <si>
+    <t>08/27/2009</t>
+  </si>
+  <si>
+    <t>If Your on business and up early.. then this is for You???</t>
+  </si>
+  <si>
+    <t>My Husband and I Showed Up to find there was no parking, Parking lot was very tiny.. SO much, that some people took up two parking spots to be assured they can get out when they need to! We had a truck parked 2 feet from our door and had to turn sideways to get in the room. The room was nice but very very small w/ no bath tub.  The walls we paper thin and humid. We even walked over to the travelodge next door to check them out and ended up booking the rest of the week over there for 10 Dallas less!! We were already committed to staying at the roadway for that night , no biggie. the next morning about 9am I opened the door to get some fresh air and was asked to shut it by a man with a leaf blower, at 9:15 Some one called Me and asked Me if I was checking out and when? I was shocked!! Thank God I was not sleeping in to 10am lol Well.. We stayed at the travelodge that night and for the rest of the week but on the day of leaving at 9:45 We hear a LOUD jack hammer coming from the roadway!! "NO JOKE" SO beware!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>My Husband and I Showed Up to find there was no parking, Parking lot was very tiny.. SO much, that some people took up two parking spots to be assured they can get out when they need to! We had a truck parked 2 feet from our door and had to turn sideways to get in the room. The room was nice but very very small w/ no bath tub.  The walls we paper thin and humid. We even walked over to the travelodge next door to check them out and ended up booking the rest of the week over there for 10 Dallas less!! We were already committed to staying at the roadway for that night , no biggie. the next morning about 9am I opened the door to get some fresh air and was asked to shut it by a man with a leaf blower, at 9:15 Some one called Me and asked Me if I was checking out and when? I was shocked!! Thank God I was not sleeping in to 10am lol Well.. We stayed at the travelodge that night and for the rest of the week but on the day of leaving at 9:45 We hear a LOUD jack hammer coming from the roadway!! "NO JOKE" SO beware!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r29803797-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>29803797</t>
+  </si>
+  <si>
+    <t>05/11/2009</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>I was hesitant to stay at the Rodeway Inn in Long Beach after I read the remarks from others; but decided to stay after receiving a great rate from the hotel’s website. I had reserved a room with two beds and none smoking online. Our room was clean and the beds were extra comfy. The bathroom seemed recently redone. The shower’s wall and the sink had granite and were immaculate. The Convention Center was close by. We walked to our meetings everyday. That saved us at least $48 in parking charges. A good rate and no parking charges. I’m glad that we had chosen the Roadway Inn. It was worked well for. us.Janet L.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I was hesitant to stay at the Rodeway Inn in Long Beach after I read the remarks from others; but decided to stay after receiving a great rate from the hotel’s website. I had reserved a room with two beds and none smoking online. Our room was clean and the beds were extra comfy. The bathroom seemed recently redone. The shower’s wall and the sink had granite and were immaculate. The Convention Center was close by. We walked to our meetings everyday. That saved us at least $48 in parking charges. A good rate and no parking charges. I’m glad that we had chosen the Roadway Inn. It was worked well for. us.Janet L.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r26618806-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>26618806</t>
+  </si>
+  <si>
+    <t>03/22/2009</t>
+  </si>
+  <si>
+    <t>What a waste of a decent location- don't bother!!</t>
+  </si>
+  <si>
+    <t>I chose this Inn because it's part of the Choice Hotels group and I needed a hard wired internet connection for some computer updating I was doing for a client.What a horrible place. the rooms were small and I mean VERY SMALL.. I am going to guess 10 x 12 feet. The carpet is worn down and the bathroom is-is -is a 3 by 8 foot corridor with a stall shower. I have been in inside cabins of cruise ships that were larger than this room! I remember staying in a Motel 6 years ago because it was all that was available and I think I would take that over this Rodeway inn any day. They serve what is called breakfast in the morning. I actually laughed when I saw what they served; a plastic covered danish and instant coffee---all in the area where you check in. Plicture the check in area as a phone booth with security glass for you to pass your ID and Credit card through.I checked out after 1 night--moved up the road ( 1 mile) to a Comfort Inn and Suites on Willow where I stayed in a suite for $ 5.00 more than the Rodeway.Oh and one other thing--you have no problem hearing the argument 3 rooms down and cars pulling in and out of the parking lot at all hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I chose this Inn because it's part of the Choice Hotels group and I needed a hard wired internet connection for some computer updating I was doing for a client.What a horrible place. the rooms were small and I mean VERY SMALL.. I am going to guess 10 x 12 feet. The carpet is worn down and the bathroom is-is -is a 3 by 8 foot corridor with a stall shower. I have been in inside cabins of cruise ships that were larger than this room! I remember staying in a Motel 6 years ago because it was all that was available and I think I would take that over this Rodeway inn any day. They serve what is called breakfast in the morning. I actually laughed when I saw what they served; a plastic covered danish and instant coffee---all in the area where you check in. Plicture the check in area as a phone booth with security glass for you to pass your ID and Credit card through.I checked out after 1 night--moved up the road ( 1 mile) to a Comfort Inn and Suites on Willow where I stayed in a suite for $ 5.00 more than the Rodeway.Oh and one other thing--you have no problem hearing the argument 3 rooms down and cars pulling in and out of the parking lot at all hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r17570150-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>17570150</t>
+  </si>
+  <si>
+    <t>07/05/2008</t>
+  </si>
+  <si>
+    <t>You'll have problems motel.</t>
+  </si>
+  <si>
+    <t>The toilet paper is funny, our card key did not work every time we came back (exactly 3 times), we had to ask for more pillows twice.  The ice machine went off at 7 am for 2 and 1/2 hours echoing through the cement hallway outside our paper thin door the first morning.  30 minutes later around 10 am there was a man hammering tiles outside our door, might I add on July 4th.  They were very nice in helping us with all of our problems, we moved to a better room the second night, we got our pillows, but the only thing in their guest directory was information on their other motels.  The pad of paper is too small and the only thing on is "Cool Runnings".  The shower sounds like a dying cat when you turn the water on.  But it is clean and looks nice enough, there is always parking and it is a prime location.  We went to the Long Beach Cafe around the corner because we had heard good things about it, and it was indeed amazing.  It isn't exactly cheap but it was a large portion and the best breakfast and service we have ever had.Over all experience with this motel was bad, there were just too many problems and we couldn't sleep!  But it was close enough to walk to shoreline village and it was cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>The toilet paper is funny, our card key did not work every time we came back (exactly 3 times), we had to ask for more pillows twice.  The ice machine went off at 7 am for 2 and 1/2 hours echoing through the cement hallway outside our paper thin door the first morning.  30 minutes later around 10 am there was a man hammering tiles outside our door, might I add on July 4th.  They were very nice in helping us with all of our problems, we moved to a better room the second night, we got our pillows, but the only thing in their guest directory was information on their other motels.  The pad of paper is too small and the only thing on is "Cool Runnings".  The shower sounds like a dying cat when you turn the water on.  But it is clean and looks nice enough, there is always parking and it is a prime location.  We went to the Long Beach Cafe around the corner because we had heard good things about it, and it was indeed amazing.  It isn't exactly cheap but it was a large portion and the best breakfast and service we have ever had.Over all experience with this motel was bad, there were just too many problems and we couldn't sleep!  But it was close enough to walk to shoreline village and it was cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r16539355-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>16539355</t>
+  </si>
+  <si>
+    <t>05/31/2008</t>
+  </si>
+  <si>
+    <t>Cockroach Inn</t>
+  </si>
+  <si>
+    <t>We stayed there on May 16th.  At first everything was great.  It was a bit expensive at 90 $ a night but the room was clean and the bathroom was recently renovated with new tiles and a new counter.  There was quite a bit of water damage on the ceilling of the bathroom.  At about 8 pm we saw a cockroach crawling on the wall.  Where there's one cockroach, that usually meana that there are many many more.  We will not stay there next time even if the room was nice and clean.On the bright side, I forgot my shoes and only realised it once back home in Qc City, about 3500 miles away.  The front desk was nice enough to send them to me (I paid for the shipping of course).  That's why I'm giving them 2 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>We stayed there on May 16th.  At first everything was great.  It was a bit expensive at 90 $ a night but the room was clean and the bathroom was recently renovated with new tiles and a new counter.  There was quite a bit of water damage on the ceilling of the bathroom.  At about 8 pm we saw a cockroach crawling on the wall.  Where there's one cockroach, that usually meana that there are many many more.  We will not stay there next time even if the room was nice and clean.On the bright side, I forgot my shoes and only realised it once back home in Qc City, about 3500 miles away.  The front desk was nice enough to send them to me (I paid for the shipping of course).  That's why I'm giving them 2 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r14186422-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>14186422</t>
+  </si>
+  <si>
+    <t>03/10/2008</t>
+  </si>
+  <si>
+    <t>Great Location and Clean</t>
+  </si>
+  <si>
+    <t>My husband and I stayed on a Saturday night prior to a cruise and found the location very convenient.  $21 cab ride from Long Beach Airport and $21 cab ride to Los Angeles cruise pier.   Walked a short 2 blocks to a full grocery store Sunday morning before our cruise.  Walked to Shoreline Village to shops and marina activity including a meal outside overlooking the water.  Room was very clean and we couldn't have been any closer to the street.  We didn't notice any street noise and this was a Sat. night.  We had the first floor front sidewalk room.  However the window didn't open, so I felt very secure.  The neighborhood felt safe.  The staff was most accommodating and let us return after our cruise just to hold our luggage for 4 hours because we had a late flight.   We would return without even checking around to this friendly, clean, helpful, convenient, and fairly priced motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>My husband and I stayed on a Saturday night prior to a cruise and found the location very convenient.  $21 cab ride from Long Beach Airport and $21 cab ride to Los Angeles cruise pier.   Walked a short 2 blocks to a full grocery store Sunday morning before our cruise.  Walked to Shoreline Village to shops and marina activity including a meal outside overlooking the water.  Room was very clean and we couldn't have been any closer to the street.  We didn't notice any street noise and this was a Sat. night.  We had the first floor front sidewalk room.  However the window didn't open, so I felt very secure.  The neighborhood felt safe.  The staff was most accommodating and let us return after our cruise just to hold our luggage for 4 hours because we had a late flight.   We would return without even checking around to this friendly, clean, helpful, convenient, and fairly priced motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r4583292-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>4583292</t>
+  </si>
+  <si>
+    <t>03/04/2006</t>
+  </si>
+  <si>
+    <t>very good value</t>
+  </si>
+  <si>
+    <t>Our family of three stayed for one Saturday night at the Rodeway Inn in Longbeach before leaving for Carnival Pride the following day.  It was a two-story motor hotel.  If you are interested in a nice room at a decent price, I would recommend it. We had two very clean bedrooms and a bathroom, like a mini-suite.  Many members of Trip Advisor recommended the Long Beach Hotel, near the cruise ship.  That was $158.  The Rodeway was $109.  Both add taxes-$129 for us total.  We stayed only 9 hours there, and it was very clean, the family running it was very freindly, there was a great breakfast place right around the corner, we were one block from a beautiful beach where we walked,  and we were in the middle of a very nice residential and hotel area.  The bus stop was a one-minute walk.  We chose to roll and stroll our suitcases for four blocks, look at the Sunday scenery, jump on a free bus to the cruise ship terminal, and arrive in ten minutes.
+Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean...Our family of three stayed for one Saturday night at the Rodeway Inn in Longbeach before leaving for Carnival Pride the following day.  It was a two-story motor hotel.  If you are interested in a nice room at a decent price, I would recommend it. We had two very clean bedrooms and a bathroom, like a mini-suite.  Many members of Trip Advisor recommended the Long Beach Hotel, near the cruise ship.  That was $158.  The Rodeway was $109.  Both add taxes-$129 for us total.  We stayed only 9 hours there, and it was very clean, the family running it was very freindly, there was a great breakfast place right around the corner, we were one block from a beautiful beach where we walked,  and we were in the middle of a very nice residential and hotel area.  The bus stop was a one-minute walk.  We chose to roll and stroll our suitcases for four blocks, look at the Sunday scenery, jump on a free bus to the cruise ship terminal, and arrive in ten minutes.Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean and upscale.  A couple of blocks up, away from the hotel and beach I saw a few homeless, but not there. If you needed to take a taxi, it would erase much of the savings.Looking back, for us the area was fun and an adventure, and we would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of three stayed for one Saturday night at the Rodeway Inn in Longbeach before leaving for Carnival Pride the following day.  It was a two-story motor hotel.  If you are interested in a nice room at a decent price, I would recommend it. We had two very clean bedrooms and a bathroom, like a mini-suite.  Many members of Trip Advisor recommended the Long Beach Hotel, near the cruise ship.  That was $158.  The Rodeway was $109.  Both add taxes-$129 for us total.  We stayed only 9 hours there, and it was very clean, the family running it was very freindly, there was a great breakfast place right around the corner, we were one block from a beautiful beach where we walked,  and we were in the middle of a very nice residential and hotel area.  The bus stop was a one-minute walk.  We chose to roll and stroll our suitcases for four blocks, look at the Sunday scenery, jump on a free bus to the cruise ship terminal, and arrive in ten minutes.
+Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean...Our family of three stayed for one Saturday night at the Rodeway Inn in Longbeach before leaving for Carnival Pride the following day.  It was a two-story motor hotel.  If you are interested in a nice room at a decent price, I would recommend it. We had two very clean bedrooms and a bathroom, like a mini-suite.  Many members of Trip Advisor recommended the Long Beach Hotel, near the cruise ship.  That was $158.  The Rodeway was $109.  Both add taxes-$129 for us total.  We stayed only 9 hours there, and it was very clean, the family running it was very freindly, there was a great breakfast place right around the corner, we were one block from a beautiful beach where we walked,  and we were in the middle of a very nice residential and hotel area.  The bus stop was a one-minute walk.  We chose to roll and stroll our suitcases for four blocks, look at the Sunday scenery, jump on a free bus to the cruise ship terminal, and arrive in ten minutes.Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean and upscale.  A couple of blocks up, away from the hotel and beach I saw a few homeless, but not there. If you needed to take a taxi, it would erase much of the savings.Looking back, for us the area was fun and an adventure, and we would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r4469169-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>4469169</t>
+  </si>
+  <si>
+    <t>02/17/2006</t>
+  </si>
+  <si>
+    <t>Relief</t>
+  </si>
+  <si>
+    <t>Had to fly in one day early for our cruise and at the last momment booked this motel. We arrived late, check in was fast and friendly, nice people. Room was very clean (my wife was impressed with the clean starched sheets). The continental breakfast was muffins and pastries,we decided to WALK around the corner to the Long Beach Cafe, excellant. Would recomend this motel and would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r3835605-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>3835605</t>
+  </si>
+  <si>
+    <t>08/31/2005</t>
+  </si>
+  <si>
+    <t>Good value, good location.</t>
+  </si>
+  <si>
+    <t>Clean simple rooms for a good price.  The water pressure was excellent in the shower, there is a refrigerator in room, AC worked well, and we got a LA Times in the AM.  The location is convenient to the convention center.  Good diner around the corner.  No pool, but the ocean is close by.  I felt safe, and the alley exist was just fine (no prob manuevering our PT Cruiser).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r3691782-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>3691782</t>
+  </si>
+  <si>
+    <t>07/21/2005</t>
+  </si>
+  <si>
+    <t>Must read this review!!</t>
+  </si>
+  <si>
+    <t>Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather...Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather nice, no bath tub though for those with small children. Rooms with Two beds such as mine have one bed semi-separated with a partial wall. That room never cools off and the occupants are miserable during the night.The pluses are being so  close to the beach, the pike, aquarium, etc. for half the cost of the other hotels. The difference is they fill in the negatives mentioned here with the higher priced room which I personnally think is worth it. If you are looking for a nice room to stay for cheap, that is this close to the beach this is it, but for my family we could not stay here again, because of all the little issues. We will have to bite the bullet and pay premium. You get what you pay for. Don't be fooled corporate photos and facility descriptions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather...Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather nice, no bath tub though for those with small children. Rooms with Two beds such as mine have one bed semi-separated with a partial wall. That room never cools off and the occupants are miserable during the night.The pluses are being so  close to the beach, the pike, aquarium, etc. for half the cost of the other hotels. The difference is they fill in the negatives mentioned here with the higher priced room which I personnally think is worth it. If you are looking for a nice room to stay for cheap, that is this close to the beach this is it, but for my family we could not stay here again, because of all the little issues. We will have to bite the bullet and pay premium. You get what you pay for. Don't be fooled corporate photos and facility descriptions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r3499319-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>3499319</t>
+  </si>
+  <si>
+    <t>05/24/2005</t>
+  </si>
+  <si>
+    <t>No bathtub, clean room, good price</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night while in town for a business convention.  Front desk staff was not the friendliest, but not rude either.  The desk clerk tried to get me to sign a blank credit card receipt upon checking in.  Of course, I didn't sign it until she printed the price on the receipt.  This wasn't necessarily a shady practice... but, not a very wise one, either.  In any case, the room was cheap ($77 including all tax and charges).  And, the rooms were clean.  There was not a bathtub in my room... just a dark shower stall (see pics).  But, the water pressure was great.  One very annoying thing about the hotel room was the fact that they have the A/C and heater set up so that you can't have the unit ON unless the door is double-locked.  In other words, you can't leave the A/C on while you go out for the day so that you can return to a nice, cool room.  There's even a sign on the door telling you that you have to be IN the room to have the A/C on.  During my stay, temperatures topped 100 degrees... so, this was bothersome for me.  This factor would prevent me from staying there again.  I recommend booking online to save.  I called the hotel and got a price of almost double the online price.  So, I booked online.  Parking was quite cramped....I stayed at this hotel for one night while in town for a business convention.  Front desk staff was not the friendliest, but not rude either.  The desk clerk tried to get me to sign a blank credit card receipt upon checking in.  Of course, I didn't sign it until she printed the price on the receipt.  This wasn't necessarily a shady practice... but, not a very wise one, either.  In any case, the room was cheap ($77 including all tax and charges).  And, the rooms were clean.  There was not a bathtub in my room... just a dark shower stall (see pics).  But, the water pressure was great.  One very annoying thing about the hotel room was the fact that they have the A/C and heater set up so that you can't have the unit ON unless the door is double-locked.  In other words, you can't leave the A/C on while you go out for the day so that you can return to a nice, cool room.  There's even a sign on the door telling you that you have to be IN the room to have the A/C on.  During my stay, temperatures topped 100 degrees... so, this was bothersome for me.  This factor would prevent me from staying there again.  I recommend booking online to save.  I called the hotel and got a price of almost double the online price.  So, I booked online.  Parking was quite cramped.  The lot is very small and I could easily see several fender benders occurring here.  This is your VERY basic hotel.  Nothing extra.  Nothing special here.  If you need a cheap, clean, safe place to sleep for the night, this would be a good place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2005</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night while in town for a business convention.  Front desk staff was not the friendliest, but not rude either.  The desk clerk tried to get me to sign a blank credit card receipt upon checking in.  Of course, I didn't sign it until she printed the price on the receipt.  This wasn't necessarily a shady practice... but, not a very wise one, either.  In any case, the room was cheap ($77 including all tax and charges).  And, the rooms were clean.  There was not a bathtub in my room... just a dark shower stall (see pics).  But, the water pressure was great.  One very annoying thing about the hotel room was the fact that they have the A/C and heater set up so that you can't have the unit ON unless the door is double-locked.  In other words, you can't leave the A/C on while you go out for the day so that you can return to a nice, cool room.  There's even a sign on the door telling you that you have to be IN the room to have the A/C on.  During my stay, temperatures topped 100 degrees... so, this was bothersome for me.  This factor would prevent me from staying there again.  I recommend booking online to save.  I called the hotel and got a price of almost double the online price.  So, I booked online.  Parking was quite cramped....I stayed at this hotel for one night while in town for a business convention.  Front desk staff was not the friendliest, but not rude either.  The desk clerk tried to get me to sign a blank credit card receipt upon checking in.  Of course, I didn't sign it until she printed the price on the receipt.  This wasn't necessarily a shady practice... but, not a very wise one, either.  In any case, the room was cheap ($77 including all tax and charges).  And, the rooms were clean.  There was not a bathtub in my room... just a dark shower stall (see pics).  But, the water pressure was great.  One very annoying thing about the hotel room was the fact that they have the A/C and heater set up so that you can't have the unit ON unless the door is double-locked.  In other words, you can't leave the A/C on while you go out for the day so that you can return to a nice, cool room.  There's even a sign on the door telling you that you have to be IN the room to have the A/C on.  During my stay, temperatures topped 100 degrees... so, this was bothersome for me.  This factor would prevent me from staying there again.  I recommend booking online to save.  I called the hotel and got a price of almost double the online price.  So, I booked online.  Parking was quite cramped.  The lot is very small and I could easily see several fender benders occurring here.  This is your VERY basic hotel.  Nothing extra.  Nothing special here.  If you need a cheap, clean, safe place to sleep for the night, this would be a good place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r3289839-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>3289839</t>
+  </si>
+  <si>
+    <t>03/19/2005</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Stay in February 2005.  Rooms are simple and clean with large TVs.  Our stay was comfortable and the staff exceptionally helpful and nice.  Continental breakfast could use some improvement as it consists of boxed juices and packaged danishes.  The walk to "downtown" and the movie theatre/restaurant areas is several blocks but still doable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r1791356-Rodeway_Inn-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1791356</t>
+  </si>
+  <si>
+    <t>04/17/2004</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>Although the on-line photo may not appeal, don't let that put you off. 
+This small motel just 4-5 blocks from the Convention Center (about a 7-minute walk along the main drag that parallels the water) was convenient, clean, and comparatively affordable, especially for those who are paying their own way for conference attendance. The rooms have recently been refurbished a la La Quinta and some of the nicer chain motels. If you are sharing lodging with a colleague, some of the rooms have a separate bedroom off the main bedroom, allowing each of you to have your own space. The management was immensely accommodating, the parking was free (in other hotels in the area it could cost as much as $20/day) and though the facilities are basic, you have in-room coffee, a bigger (and colder) than usual fridge that you don't have to remove any pesky high-priced drinks/snacks from to use, free coffee and danish in the office in the morning, free local phone calls, free morning paper, a hair dryer, iron, etc. I got the impression that the facility is owned by a family that is quite earnest about satisfying the needs of their guests. They gave helpful, accurate directions and area info, too. It's not as flashy as the Hyatt or the Westin, but it's half the price and still in a safe neighborhood. I noticed they were awarded a "most improved" award from the parent company, which...Although the on-line photo may not appeal, don't let that put you off. This small motel just 4-5 blocks from the Convention Center (about a 7-minute walk along the main drag that parallels the water) was convenient, clean, and comparatively affordable, especially for those who are paying their own way for conference attendance. The rooms have recently been refurbished a la La Quinta and some of the nicer chain motels. If you are sharing lodging with a colleague, some of the rooms have a separate bedroom off the main bedroom, allowing each of you to have your own space. The management was immensely accommodating, the parking was free (in other hotels in the area it could cost as much as $20/day) and though the facilities are basic, you have in-room coffee, a bigger (and colder) than usual fridge that you don't have to remove any pesky high-priced drinks/snacks from to use, free coffee and danish in the office in the morning, free local phone calls, free morning paper, a hair dryer, iron, etc. I got the impression that the facility is owned by a family that is quite earnest about satisfying the needs of their guests. They gave helpful, accurate directions and area info, too. It's not as flashy as the Hyatt or the Westin, but it's half the price and still in a safe neighborhood. I noticed they were awarded a "most improved" award from the parent company, which made sense. They even sent me a "thank you" note for staying with them! Check it out.Louise G.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2005</t>
+  </si>
+  <si>
+    <t>Although the on-line photo may not appeal, don't let that put you off. 
+This small motel just 4-5 blocks from the Convention Center (about a 7-minute walk along the main drag that parallels the water) was convenient, clean, and comparatively affordable, especially for those who are paying their own way for conference attendance. The rooms have recently been refurbished a la La Quinta and some of the nicer chain motels. If you are sharing lodging with a colleague, some of the rooms have a separate bedroom off the main bedroom, allowing each of you to have your own space. The management was immensely accommodating, the parking was free (in other hotels in the area it could cost as much as $20/day) and though the facilities are basic, you have in-room coffee, a bigger (and colder) than usual fridge that you don't have to remove any pesky high-priced drinks/snacks from to use, free coffee and danish in the office in the morning, free local phone calls, free morning paper, a hair dryer, iron, etc. I got the impression that the facility is owned by a family that is quite earnest about satisfying the needs of their guests. They gave helpful, accurate directions and area info, too. It's not as flashy as the Hyatt or the Westin, but it's half the price and still in a safe neighborhood. I noticed they were awarded a "most improved" award from the parent company, which...Although the on-line photo may not appeal, don't let that put you off. This small motel just 4-5 blocks from the Convention Center (about a 7-minute walk along the main drag that parallels the water) was convenient, clean, and comparatively affordable, especially for those who are paying their own way for conference attendance. The rooms have recently been refurbished a la La Quinta and some of the nicer chain motels. If you are sharing lodging with a colleague, some of the rooms have a separate bedroom off the main bedroom, allowing each of you to have your own space. The management was immensely accommodating, the parking was free (in other hotels in the area it could cost as much as $20/day) and though the facilities are basic, you have in-room coffee, a bigger (and colder) than usual fridge that you don't have to remove any pesky high-priced drinks/snacks from to use, free coffee and danish in the office in the morning, free local phone calls, free morning paper, a hair dryer, iron, etc. I got the impression that the facility is owned by a family that is quite earnest about satisfying the needs of their guests. They gave helpful, accurate directions and area info, too. It's not as flashy as the Hyatt or the Westin, but it's half the price and still in a safe neighborhood. I noticed they were awarded a "most improved" award from the parent company, which made sense. They even sent me a "thank you" note for staying with them! Check it out.Louise G.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2840,7073 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>173</v>
+      </c>
+      <c r="X15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s">
+        <v>188</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>251</v>
+      </c>
+      <c r="X26" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>181</v>
+      </c>
+      <c r="X27" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X28" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
+      </c>
+      <c r="O29" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>271</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>272</v>
+      </c>
+      <c r="X30" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>271</v>
+      </c>
+      <c r="O31" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>272</v>
+      </c>
+      <c r="X32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>272</v>
+      </c>
+      <c r="X34" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>310</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>325</v>
+      </c>
+      <c r="J38" t="s">
+        <v>326</v>
+      </c>
+      <c r="K38" t="s">
+        <v>327</v>
+      </c>
+      <c r="L38" t="s">
+        <v>328</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>333</v>
+      </c>
+      <c r="L39" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>316</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>272</v>
+      </c>
+      <c r="X41" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>272</v>
+      </c>
+      <c r="X42" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>272</v>
+      </c>
+      <c r="X43" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>272</v>
+      </c>
+      <c r="X44" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>386</v>
+      </c>
+      <c r="J48" t="s">
+        <v>387</v>
+      </c>
+      <c r="K48" t="s">
+        <v>388</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>310</v>
+      </c>
+      <c r="O48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>272</v>
+      </c>
+      <c r="X50" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>119</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>272</v>
+      </c>
+      <c r="X51" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>272</v>
+      </c>
+      <c r="X52" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>272</v>
+      </c>
+      <c r="X53" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>422</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>423</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s">
+        <v>425</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>272</v>
+      </c>
+      <c r="X54" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>427</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>428</v>
+      </c>
+      <c r="J55" t="s">
+        <v>429</v>
+      </c>
+      <c r="K55" t="s">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s">
+        <v>431</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>432</v>
+      </c>
+      <c r="O55" t="s">
+        <v>119</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>433</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>434</v>
+      </c>
+      <c r="J56" t="s">
+        <v>435</v>
+      </c>
+      <c r="K56" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" t="s">
+        <v>437</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>438</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>440</v>
+      </c>
+      <c r="J57" t="s">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>443</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>444</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>447</v>
+      </c>
+      <c r="J58" t="s">
+        <v>448</v>
+      </c>
+      <c r="K58" t="s">
+        <v>449</v>
+      </c>
+      <c r="L58" t="s">
+        <v>450</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>452</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>119</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>463</v>
+      </c>
+      <c r="J61" t="s">
+        <v>464</v>
+      </c>
+      <c r="K61" t="s">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s">
+        <v>466</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>384</v>
+      </c>
+      <c r="O61" t="s">
+        <v>83</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>272</v>
+      </c>
+      <c r="X61" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>469</v>
+      </c>
+      <c r="J62" t="s">
+        <v>470</v>
+      </c>
+      <c r="K62" t="s">
+        <v>471</v>
+      </c>
+      <c r="L62" t="s">
+        <v>472</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>119</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>272</v>
+      </c>
+      <c r="X62" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>272</v>
+      </c>
+      <c r="X63" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>481</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>482</v>
+      </c>
+      <c r="J64" t="s">
+        <v>483</v>
+      </c>
+      <c r="K64" t="s">
+        <v>484</v>
+      </c>
+      <c r="L64" t="s">
+        <v>485</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>486</v>
+      </c>
+      <c r="O64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>272</v>
+      </c>
+      <c r="X64" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>494</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>495</v>
+      </c>
+      <c r="J66" t="s">
+        <v>496</v>
+      </c>
+      <c r="K66" t="s">
+        <v>497</v>
+      </c>
+      <c r="L66" t="s">
+        <v>498</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>499</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>501</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>502</v>
+      </c>
+      <c r="J67" t="s">
+        <v>503</v>
+      </c>
+      <c r="K67" t="s">
+        <v>504</v>
+      </c>
+      <c r="L67" t="s">
+        <v>505</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>499</v>
+      </c>
+      <c r="O67" t="s">
+        <v>83</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>506</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>507</v>
+      </c>
+      <c r="J68" t="s">
+        <v>508</v>
+      </c>
+      <c r="K68" t="s">
+        <v>509</v>
+      </c>
+      <c r="L68" t="s">
+        <v>510</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>420</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>511</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>512</v>
+      </c>
+      <c r="J69" t="s">
+        <v>513</v>
+      </c>
+      <c r="K69" t="s">
+        <v>514</v>
+      </c>
+      <c r="L69" t="s">
+        <v>515</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>516</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>517</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>518</v>
+      </c>
+      <c r="J70" t="s">
+        <v>519</v>
+      </c>
+      <c r="K70" t="s">
+        <v>520</v>
+      </c>
+      <c r="L70" t="s">
+        <v>521</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>516</v>
+      </c>
+      <c r="O70" t="s">
+        <v>119</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>524</v>
+      </c>
+      <c r="K71" t="s">
+        <v>525</v>
+      </c>
+      <c r="L71" t="s">
+        <v>526</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>272</v>
+      </c>
+      <c r="X71" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>528</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>529</v>
+      </c>
+      <c r="J72" t="s">
+        <v>530</v>
+      </c>
+      <c r="K72" t="s">
+        <v>531</v>
+      </c>
+      <c r="L72" t="s">
+        <v>532</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>533</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>272</v>
+      </c>
+      <c r="X72" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" t="s">
+        <v>537</v>
+      </c>
+      <c r="K73" t="s">
+        <v>538</v>
+      </c>
+      <c r="L73" t="s">
+        <v>539</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>540</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>272</v>
+      </c>
+      <c r="X73" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>542</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>543</v>
+      </c>
+      <c r="J74" t="s">
+        <v>544</v>
+      </c>
+      <c r="K74" t="s">
+        <v>545</v>
+      </c>
+      <c r="L74" t="s">
+        <v>546</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>547</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>272</v>
+      </c>
+      <c r="X74" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>549</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>550</v>
+      </c>
+      <c r="J75" t="s">
+        <v>551</v>
+      </c>
+      <c r="K75" t="s">
+        <v>552</v>
+      </c>
+      <c r="L75" t="s">
+        <v>553</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>547</v>
+      </c>
+      <c r="O75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>272</v>
+      </c>
+      <c r="X75" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>555</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>556</v>
+      </c>
+      <c r="J76" t="s">
+        <v>557</v>
+      </c>
+      <c r="K76" t="s">
+        <v>558</v>
+      </c>
+      <c r="L76" t="s">
+        <v>559</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>547</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>272</v>
+      </c>
+      <c r="X76" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>561</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>562</v>
+      </c>
+      <c r="J77" t="s">
+        <v>563</v>
+      </c>
+      <c r="K77" t="s">
+        <v>564</v>
+      </c>
+      <c r="L77" t="s">
+        <v>565</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>566</v>
+      </c>
+      <c r="O77" t="s">
+        <v>119</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>568</v>
+      </c>
+      <c r="J78" t="s">
+        <v>569</v>
+      </c>
+      <c r="K78" t="s">
+        <v>570</v>
+      </c>
+      <c r="L78" t="s">
+        <v>571</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>572</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>574</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>575</v>
+      </c>
+      <c r="J79" t="s">
+        <v>576</v>
+      </c>
+      <c r="K79" t="s">
+        <v>577</v>
+      </c>
+      <c r="L79" t="s">
+        <v>578</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>572</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+      <c r="J80" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" t="s">
+        <v>582</v>
+      </c>
+      <c r="L80" t="s">
+        <v>583</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>584</v>
+      </c>
+      <c r="O80" t="s">
+        <v>119</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>585</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>586</v>
+      </c>
+      <c r="J81" t="s">
+        <v>587</v>
+      </c>
+      <c r="K81" t="s">
+        <v>588</v>
+      </c>
+      <c r="L81" t="s">
+        <v>589</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>584</v>
+      </c>
+      <c r="O81" t="s">
+        <v>119</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>590</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>591</v>
+      </c>
+      <c r="J82" t="s">
+        <v>592</v>
+      </c>
+      <c r="K82" t="s">
+        <v>593</v>
+      </c>
+      <c r="L82" t="s">
+        <v>594</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>584</v>
+      </c>
+      <c r="O82" t="s">
+        <v>83</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>596</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>597</v>
+      </c>
+      <c r="J83" t="s">
+        <v>598</v>
+      </c>
+      <c r="K83" t="s">
+        <v>599</v>
+      </c>
+      <c r="L83" t="s">
+        <v>600</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>601</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>602</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>603</v>
+      </c>
+      <c r="J84" t="s">
+        <v>604</v>
+      </c>
+      <c r="K84" t="s">
+        <v>605</v>
+      </c>
+      <c r="L84" t="s">
+        <v>606</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>607</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>609</v>
+      </c>
+      <c r="J85" t="s">
+        <v>610</v>
+      </c>
+      <c r="K85" t="s">
+        <v>611</v>
+      </c>
+      <c r="L85" t="s">
+        <v>612</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>613</v>
+      </c>
+      <c r="O85" t="s">
+        <v>83</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>614</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>615</v>
+      </c>
+      <c r="J86" t="s">
+        <v>616</v>
+      </c>
+      <c r="K86" t="s">
+        <v>617</v>
+      </c>
+      <c r="L86" t="s">
+        <v>618</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>619</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>620</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>621</v>
+      </c>
+      <c r="J87" t="s">
+        <v>622</v>
+      </c>
+      <c r="K87" t="s">
+        <v>623</v>
+      </c>
+      <c r="L87" t="s">
+        <v>624</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>625</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>626</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>627</v>
+      </c>
+      <c r="J88" t="s">
+        <v>628</v>
+      </c>
+      <c r="K88" t="s">
+        <v>629</v>
+      </c>
+      <c r="L88" t="s">
+        <v>630</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>631</v>
+      </c>
+      <c r="O88" t="s">
+        <v>119</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>632</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>633</v>
+      </c>
+      <c r="J89" t="s">
+        <v>634</v>
+      </c>
+      <c r="K89" t="s">
+        <v>635</v>
+      </c>
+      <c r="L89" t="s">
+        <v>636</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>637</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>638</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>639</v>
+      </c>
+      <c r="J90" t="s">
+        <v>640</v>
+      </c>
+      <c r="K90" t="s">
+        <v>641</v>
+      </c>
+      <c r="L90" t="s">
+        <v>642</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>637</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>643</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>644</v>
+      </c>
+      <c r="J91" t="s">
+        <v>645</v>
+      </c>
+      <c r="K91" t="s">
+        <v>646</v>
+      </c>
+      <c r="L91" t="s">
+        <v>647</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>637</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>649</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>650</v>
+      </c>
+      <c r="J92" t="s">
+        <v>651</v>
+      </c>
+      <c r="K92" t="s">
+        <v>652</v>
+      </c>
+      <c r="L92" t="s">
+        <v>653</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>654</v>
+      </c>
+      <c r="O92" t="s">
+        <v>63</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>656</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>657</v>
+      </c>
+      <c r="J93" t="s">
+        <v>658</v>
+      </c>
+      <c r="K93" t="s">
+        <v>659</v>
+      </c>
+      <c r="L93" t="s">
+        <v>660</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>661</v>
+      </c>
+      <c r="O93" t="s">
+        <v>119</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>663</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>664</v>
+      </c>
+      <c r="J94" t="s">
+        <v>665</v>
+      </c>
+      <c r="K94" t="s">
+        <v>666</v>
+      </c>
+      <c r="L94" t="s">
+        <v>667</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>661</v>
+      </c>
+      <c r="O94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>668</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>669</v>
+      </c>
+      <c r="J95" t="s">
+        <v>670</v>
+      </c>
+      <c r="K95" t="s">
+        <v>671</v>
+      </c>
+      <c r="L95" t="s">
+        <v>672</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>673</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>674</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>675</v>
+      </c>
+      <c r="J96" t="s">
+        <v>676</v>
+      </c>
+      <c r="K96" t="s">
+        <v>677</v>
+      </c>
+      <c r="L96" t="s">
+        <v>678</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>679</v>
+      </c>
+      <c r="O96" t="s">
+        <v>119</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>680</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>681</v>
+      </c>
+      <c r="J97" t="s">
+        <v>682</v>
+      </c>
+      <c r="K97" t="s">
+        <v>683</v>
+      </c>
+      <c r="L97" t="s">
+        <v>684</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>679</v>
+      </c>
+      <c r="O97" t="s">
+        <v>119</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>685</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>686</v>
+      </c>
+      <c r="J98" t="s">
+        <v>687</v>
+      </c>
+      <c r="K98" t="s">
+        <v>688</v>
+      </c>
+      <c r="L98" t="s">
+        <v>689</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>690</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>692</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>693</v>
+      </c>
+      <c r="J99" t="s">
+        <v>694</v>
+      </c>
+      <c r="K99" t="s">
+        <v>695</v>
+      </c>
+      <c r="L99" t="s">
+        <v>696</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>697</v>
+      </c>
+      <c r="O99" t="s">
+        <v>119</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>699</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>700</v>
+      </c>
+      <c r="J100" t="s">
+        <v>701</v>
+      </c>
+      <c r="K100" t="s">
+        <v>702</v>
+      </c>
+      <c r="L100" t="s">
+        <v>703</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>704</v>
+      </c>
+      <c r="O100" t="s">
+        <v>119</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>706</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>707</v>
+      </c>
+      <c r="J101" t="s">
+        <v>708</v>
+      </c>
+      <c r="K101" t="s">
+        <v>709</v>
+      </c>
+      <c r="L101" t="s">
+        <v>710</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>711</v>
+      </c>
+      <c r="O101" t="s">
+        <v>63</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>713</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>714</v>
+      </c>
+      <c r="J102" t="s">
+        <v>715</v>
+      </c>
+      <c r="K102" t="s">
+        <v>716</v>
+      </c>
+      <c r="L102" t="s">
+        <v>717</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>718</v>
+      </c>
+      <c r="O102" t="s">
+        <v>119</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>720</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>721</v>
+      </c>
+      <c r="J103" t="s">
+        <v>722</v>
+      </c>
+      <c r="K103" t="s">
+        <v>723</v>
+      </c>
+      <c r="L103" t="s">
+        <v>724</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>725</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>727</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>728</v>
+      </c>
+      <c r="J104" t="s">
+        <v>729</v>
+      </c>
+      <c r="K104" t="s">
+        <v>730</v>
+      </c>
+      <c r="L104" t="s">
+        <v>731</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>733</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>734</v>
+      </c>
+      <c r="J105" t="s">
+        <v>735</v>
+      </c>
+      <c r="K105" t="s">
+        <v>736</v>
+      </c>
+      <c r="L105" t="s">
+        <v>737</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>738</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>739</v>
+      </c>
+      <c r="J106" t="s">
+        <v>740</v>
+      </c>
+      <c r="K106" t="s">
+        <v>741</v>
+      </c>
+      <c r="L106" t="s">
+        <v>742</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>743</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>744</v>
+      </c>
+      <c r="J107" t="s">
+        <v>745</v>
+      </c>
+      <c r="K107" t="s">
+        <v>746</v>
+      </c>
+      <c r="L107" t="s">
+        <v>747</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>749</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>750</v>
+      </c>
+      <c r="J108" t="s">
+        <v>751</v>
+      </c>
+      <c r="K108" t="s">
+        <v>752</v>
+      </c>
+      <c r="L108" t="s">
+        <v>753</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>754</v>
+      </c>
+      <c r="O108" t="s">
+        <v>119</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>756</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>757</v>
+      </c>
+      <c r="J109" t="s">
+        <v>758</v>
+      </c>
+      <c r="K109" t="s">
+        <v>759</v>
+      </c>
+      <c r="L109" t="s">
+        <v>760</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>17482</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>761</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>762</v>
+      </c>
+      <c r="J110" t="s">
+        <v>763</v>
+      </c>
+      <c r="K110" t="s">
+        <v>764</v>
+      </c>
+      <c r="L110" t="s">
+        <v>765</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>766</v>
+      </c>
+      <c r="O110" t="s">
+        <v>119</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>767</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_674.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="874">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>JustJeanette</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Arrived around 5 p.m. The parking lot is very small but there were a couple of spaces available at that time.  Lysette at the front desk was very friendly.  Check in was quick and easy.  The room was a pleasant surprise.  Nicely decorated with a bed in the first space when you walk in, then another bed in a separate room.  Space was a little small but it was fine for the two of us that were in the room.  Bathroom is small but not cramped.  At one point we were both in the mirror there with no problem.  South of the hotel is the ocean and convention center.  North is the nightlife...all within a 20 minute walk.  Which is convenient because we moved our car out of the hotel parking lot one day and came back to no parking spots being available.  We ended up having to park the car on a street about a mile away...which wasn't too inconvenient for someone who walks regularly anyway, but I was hoping nothing would happen to my car!  This place really is a gem.  Mini fridge and microwave in the room and 24 hour coffee at the front desk space.  Room was very clean and quiet and the area felt safe.  I would absolutely stay at this hotel again. (P.S. Nothing happened to my car.)More</t>
   </si>
   <si>
+    <t>Dodgesrw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r575040893-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>This is probably the smallest choice hotel we have ever stayed at. You have to duck at the end of the bed to not hit your head on the TV as you walk at the end of the bed.  Not very clean either. If your just sleeping it might be ok. But we are not putting this on our return trip. More</t>
   </si>
   <si>
+    <t>J L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r569308846-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>This hotel is half a block from the main Shoreline Drive in Long Beach. Staff is very accommodating and the room is clean with standard amenities. It seems to be an older style yet renovated hotel. The rooms are small, but for a short stay at a reasonable price it fit the bill. They offer coffee, juice and prepackaged muffins and granola bars in the morning. There is on-site parking, which is a plus since downtown parking is hard to find. If you’re looking for a basic, budget hotel for short stay, this is a good choice.More</t>
   </si>
   <si>
+    <t>Rebecca H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r533900834-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -279,6 +291,9 @@
     <t>Went without a car.  Stayed 3 days, had 1 day somewhere else and then checked in and back out for 1 additional day.  First room was perfect, last room the wallpaper needed replacing, but other than that, good stay.  First room was on the top floor, second on the bottom floor which we requested because of carrying luggage and no elevator.  Walking distance to the aquarium but it is quite a walk, can seem long after all day of walking, a little over 1 mile.  Free passport bus is listed as stopping at the bus stop right near the room on the Long Beach transit website, but never stopped any of the times listed there, it does pick up from aquarium though to go to the Queen Mary and other locations downtown.  Friendly staff, they helped us carry our luggage up the stairs the first day.  Breakfast is packaged muffins/pastry and granola bars.  Vons grocery store is really close.  Has better price compared to a lot of the hotels right in the downtown area.More</t>
   </si>
   <si>
+    <t>Steve W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r516043904-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -306,6 +321,9 @@
     <t>The Rodeway Inn is more of a motel than a hotel but its in a great location and we had a really good stay here. Breakfast is basic but helped set us up for the day and rooms were kept clean. Staff were helpful and we had a great time here in Long Beach. It suited us just fine!More</t>
   </si>
   <si>
+    <t>JimAtKSF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r513933161-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -333,6 +351,9 @@
     <t>The Rodeway Inn was pleasant surprise in Downtown Long Beach.  I has a great location and the room we had was redone and very nice.  Aside from some oddly stained sheets on the bed, the room was very clean including the bathroom.  Parking can get tight if it's busy.  We preferred to leave the car at the hotel in the evening and Uber to dinner if we weren't walking.We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Annaree731</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r501762365-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>From the outside, this doesn't look like a nice motel, but the inside is nicely decorated with an updated bathroom and premium toiletries.  The breakfast is simple (pastries, granola bars, coffee) but complimentary.  You have to drive into an alleyway to get out, but it's close to the beach and The Queen Mary. There's no onsite laundry, but literally a 5-minute drive away from one. More</t>
   </si>
   <si>
+    <t>Alex L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r500976188-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -387,6 +411,9 @@
     <t>The hotel is at a great location, within walking distance to downtown, the beach, the theaters, the aquarium, and other sites. The facility is well maintained. Most of the staff are quite friendly. I met with one who was a bit indifferent...Parking could be an issue, if you're sharing the room with a friend. The parking lot is quite small, with only one spot for each room. But if you're lucky, you can find parking on the streets.More</t>
   </si>
   <si>
+    <t>Julia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r493862432-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -414,6 +441,9 @@
     <t>We decided to stay here after seeing other good reviews, and the reasonable price. Walking distance to the beach, aquarium, and several good restaurants. Friendly staff, and were brought a bag with treats and a nice card after check in from the hotel manager. Felt very welcomed, and appreciated. Room was very clean and comfortable, and we would definitely stay again.More</t>
   </si>
   <si>
+    <t>chf1202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r486591934-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -441,6 +471,9 @@
     <t>On our way from az to menifee and now to Long Beach. Staying just one night. The place is small but very clean.  Wow really impressed with now clean and updated the bathroom is.  Well worth the price. Nice location near downtown and a lot of eating places to choose from. If you are visiting this is a option. Not a grand place to stay but great for an inexpensive short stop. I would stay here again.More</t>
   </si>
   <si>
+    <t>Tedd B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r484757900-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>First off, our rental was to include a Queen and Double beds, but upon arrival and entering the room, the one bed was locked in another room and we did not have access to it.  Upon asking, we were informed that that room was only available if we had book the adjoining room, this making 3 bedrooms.  Reservation never said that.  Room small, shower even smaller and the entire set up screamed poor layout and planning.  For a supposed inexpensive room, don't book it if close to anything happening as they will charge you the same rates and many of the top dollar hotels.  Lastly, free wifi, but you had to log in every time you left the room and your code was invalid the morning of your departure.  Needless to say, they lost a customer and will gladly pay the extra for a real room with amenities.More</t>
   </si>
   <si>
+    <t>Nana2ThreeGirls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r470184305-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -492,6 +528,9 @@
     <t>The service at this hotel was very friendly and the room was newly renovated.  The location was outstanding with a lot of restaurants within walking distance.  I stayed here for four nights in March, 2017 and will definitely come back.  The bathroom has in floor heating and a nice shower.  The cons are that the room is a little small and there's no in room coffee maker (but there was fresh coffee available at the office).More</t>
   </si>
   <si>
+    <t>Clinton J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r462257619-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -519,6 +558,9 @@
     <t>This is by far the best Choice Hotels property I've ever stayed at. The rooms had just been renovated, the staff was incredibly attentive, friendly, and professional, and the overall quality of the amenities and housekeeping were top notch. This was all compounded by the reasonable price, which seemed just right for the location and area.The only downside was that the rooms, at least the room I was in, was a bit on the smaller side. However given the quality of the rooms and the price, this wasn't upsetting. Additionally, even though a bit small, they were large enough to be comfortable for a multi-day stay.I will be staying here again if I am ever in the area.More</t>
   </si>
   <si>
+    <t>LuvScuba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r462093548-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -546,6 +588,9 @@
     <t>In town first weekend in January for a business convention. With hubby and a small group of friends/business associates. When I first saw the outside, which is somewhat nondescript, I questioned what the rooms were going to look like. We were all pleasantly surprised. Our rooms were all very clean, and featured a main room with Queen size bed and a separate bedroom with a larger double size bed. The beds were very comfortable. The setup was perfect for sharing, as you had your own space. There was a desk with mirror, a few drawers, mini fridge that kept our beverages cold, a flat screen tv, a couple of chairs, a couple of night stands, plenty of good lighting, and a separate closet with safe. Free Wi-Fi was good. Towels are thin. Parking is tight and limited, as we found out returning from dinner one night. We decided to hoof it most places after we experienced the no parking situation. Simple continental breakfast with coffee, oj, and muffins and pastries were appreciated. Price per night was less than many comparable locations. It was within walking distance to the Long Beach Arena and countless fine eateries. Quiet location.More</t>
   </si>
   <si>
+    <t>Bruce C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r455710791-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -570,6 +615,9 @@
     <t>Was attending a function at the Terrace Theater and wanted a room close by. This was quite convenient and the room was fine, fridge, micro, nice bathroom. Sound proofing from upstairs room not good, (upstairs should have carpeting) but generally quiet area. Good value for the price in this area of Long Beach.More</t>
   </si>
   <si>
+    <t>coastgypsy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r446148953-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -591,6 +639,9 @@
     <t>Not what I normally choose, but we were in Long Beach overnight to see a friend and didn't want to spend fancy money for a better place.  The staff was nice, the room was clean, and I rather much like "dated" or whatever to orange or lime green walls etc.  Would stay here again if we were in the area overnight.More</t>
   </si>
   <si>
+    <t>mmmkdana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r444116102-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -609,6 +660,9 @@
     <t>We were greeted with friendly service upon our arrival and were surprised by how much the Rodeway exceeded our expectations. The room was as pictured on various booking sites, with updated furnishings and quite clean. The hotel is within walking distance to great restaurants (definitely recommend the breakfast bar right next door and the cider and Meade pub up the street-- great society). Thanks for the great hospitality! More</t>
   </si>
   <si>
+    <t>Shu Ting G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r442587504-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>Stayed for 5 days to attending the conference. As this is not a fancy hotel, but it closes to Long Beach Convention Center (10 to 15 minutes walking distance) at a reasonable price per night. The counter staff is friendly and they provide a typical breakfast (muffin, juice and coffee) which is good enough for me.The cleanliness of room was fair. There is a special instruction on towel and bed sheet card placement if you want the housekeeper to change a new set of them. But if compared to 4, 5 star hotel room, the clealiness quality is definitely lower alittle bit, but this is the price what you paid for.More</t>
   </si>
   <si>
+    <t>Erin T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r428582535-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -657,6 +714,9 @@
     <t>I had so many issues with this hotel. When we first checked in, everything seemed fine, aside from the small room size. Things got worse and worse as the night went on. 1. The carpeting is so dirty. I got out of the shower with clean feet. 5 minutes later my feet were black. I started walking around with a towel under my feet and it was also black in no time. 2. You can hear everything in the rooms around you. The vacuum, people walking, doors etc. 3. The fridge went out overnight. All of our food spoiled. 4. The AC was so horrible. You had to stand right next to it to feel anything. I was sweating while getting ready. And it was full of dust. 5. The shower head was so short I had to bend down to use it.More</t>
   </si>
   <si>
+    <t>TonyD33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r426889579-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
     <t>The rooms here were very nice, clean and sizeable.No balcony and the windows did not open which was a bit inconvenient. But they were very comfy and there was a very basic breakfast. The location was great however - easy walking to the marina with bars and restaurants as well as to down town. Staff were nice and overall good value and fine location.More</t>
   </si>
   <si>
+    <t>Carrie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r425997930-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>It's not a fancy shmancy hotel... but has everything you need.  Clean, super helpful/nice staff and close to beach, restaurants, convention center and grocery store.  Parking is a bit tight, but hey... its free!  While we had issues with the tv and hairdryer, the staff was right on it to fix it. Breakfast is super simple but better than nothing! :)  It is also somewhat enclosed so it makes it seem safer too.  And Yes, there is a Starbucks super close!More</t>
   </si>
   <si>
+    <t>AlecRigby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r383438225-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -714,6 +780,9 @@
     <t>This is a typical motel-style property, in a great location only a short walk from Downtown and Shoreline Village.The rooms are surprisingly well-appointed, nicely furnished, and spacious. The staff were also very friendly.We only stayed one night prior to a cruise the following day, and it was only a very short Uber ride to the cruise port (although I believe the hotel also provide a shuttle).All in all a great budget hotel in a perfect locationMore</t>
   </si>
   <si>
+    <t>lynne w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r371052236-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>Staff were very friendly and helpful. The room was clean and comfortable. Fridge, microwave and TV all came in handy. Parking was free and convenvient. Good toiletries and plenty of towels. It was quiet too and wifi was good.More</t>
   </si>
   <si>
+    <t>Terence W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r366454670-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay...I stayed here 4 nights during the Grand Prix of Long Beach weekend and had an excellent stay.  The room was clean, well appointed, and well maintained.  The noise level (including A/C) was low, and I slept really well.  The room size was small, but the available space was used very efficiently and I didn't feel cramped.  The room rate included parking as well as some prepackaged muffins and danishes in the morning.  The location was excellent, being about 2 blocks from the beach and one of the entrances to the Grand Prix of Long Beach.  I loved that I could leave the race area and take a break in my room to reapply sunblock and then get back to the race with minimal time lost.  There was also a grocery store (Von's) 2 blocks away with a Starbucks, which was very convenient.  There were also lots of other restaurants within walking distance.  The only thing that I didn't like was that the front desk was behind thick bulletproof glass that made it look like a bunker.  When I first checked in, the front desk had the appearance of a checks cashed place and made me wonder whether I had booked a room in a high crime area.  The hotel staff reassured me that the crime was low in that area, and I did not experience any problems walking around.  Overall, my stay was excellent and I would definitely stay there again. More</t>
   </si>
   <si>
+    <t>Rachael Louise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r348532013-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -777,6 +852,9 @@
     <t>This hotel is ideal if all you want is a place to put your head down for the night. It's got great facilities in the room, perfect location near the beach, comfortable, clean, and extremely friendly and helpful staff. The hotel is a short distance from a great shopping market, the beach, the aquarium, and lots of public transport. I would absolutely stay again! More</t>
   </si>
   <si>
+    <t>DaminiH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r346734960-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -795,6 +873,9 @@
     <t>The Rodeway Inn is a cute, little motel, conveniently located in the heart of Long Beach. The beach is a 2 minute walk away and is close to many of attractions found in Long Beach (the front desk staff did a fantastic job of directing me to local places). The rooms were quite clean and fairly good sized, considering the size of the property. More</t>
   </si>
   <si>
+    <t>Amy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r335572601-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -816,6 +897,9 @@
     <t>I accidentally bought this hotel instead of another. I listed 6 people as we have a lot of kids. We could've stayed at a fancy hotel on the ocean for the same price as this flea bag. Never again! Disgusting overpriced and very unfriendly.More</t>
   </si>
   <si>
+    <t>Yuri D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r323530179-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -843,6 +927,9 @@
     <t>This place is very quiet and nicely renovated, although the room is not that big. I was so glad to book this place for my business trip. It is always great to have a fridge and a microwave. There is Vons in a block or two.More</t>
   </si>
   <si>
+    <t>s_scarnera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r322424519-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -861,6 +948,9 @@
     <t>The place is a normal American style motel. We were lucky and got a parking space. It seems other reviewers have had problems with that but it didn't seem full when we were there. The room was fine; clean enough and with all the amenities you would expect including free wifi. They were nice enough to let us check out a bit late and also let us leave our car there while we ate brunch at the Breakfast Bar next door (highly recommended). I would stay here again!More</t>
   </si>
   <si>
+    <t>TheParrothead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r321329187-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -879,6 +969,9 @@
     <t>From the start, everything was easy. Reservations online were easy to do. Arrival and check in were simple and straightforward. Parking was free and easy. Big plus in big cities. The location was perfect! Walking distance to everything important. Some fantastic restaurants within a few blocks. The staff were all very helpful and friendly. Accommodating as possible.The room was tidy and had all the requirements. Bathroom was a little tight and the shower was small, but I'd always rather have a small shower in a larger room than the other way around. It was workable and my elbows didn't bump into the walls, so it works OK.Overall, it was a good experience. Much more affordable option than the big hotels around. In a good part of town (there really aren't "bad areas" in Long Beach), and I never felt unsafe. Easy walk (about half a mile) to the convention center. Perfect affordable option.More</t>
   </si>
   <si>
+    <t>Naomi N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r315125527-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -897,6 +990,9 @@
     <t>I stayed one night here. Nothing fancy, but clean and walking distance to many restaurants and shopping. Affordable price, comfortable bed, would stay again. Only giving three stars because that's what it is, basic and okay. No complaints.Good breakfast place right next door.More</t>
   </si>
   <si>
+    <t>T H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r311144960-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -915,6 +1011,9 @@
     <t>They took an old style motel and turned it into a boutique style hotel.  The room was fresh and clean, all updated.  Modern Travertine Shower, high end linens, just nicely appointed.  We would stay here again.More</t>
   </si>
   <si>
+    <t>Jennifer A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r307871296-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -933,6 +1032,9 @@
     <t>I expected a decent place, but was surprised to have such a great experience. First, I had found the hotel through another website and had some issues with processing my cc. A gal from the inn called and after several calls we got that worked out. We arrived late on a Saturday night. Parking is very limited. The gal working the office moved her car so we could park! The room is extremely nice. The second bed has its own bedroom. The shower is granite. Very clean room. Best of all is that the bed was probably the most comfortable bed I've ever slept in a hotel. I'm not leaving with a sore back and little sleep. I am very happy with our visit here and will stay again next time I visit.More</t>
   </si>
   <si>
+    <t>Katia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r301769908-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -951,6 +1053,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Kathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r301503940-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -969,6 +1074,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>AshkonJ782</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r299003094-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -990,6 +1098,9 @@
     <t>I originally booked this hotel because of the great price but little did I know that the quality was going to be just as great!  My family and I spent a night in Long Beach before heading out to to the Catalina Islands early the next morning.  I had just mentioned to the desk clerk, while checking in, that I would need a means of transportation for tomorrow morning at 8am.  Just from the mention, they took it upon themselves and actually call a taxi to take my family to the port.  They even provided FREE coffee, tea, orange juice, danishes, and muffins as a continental breakfast. The room itself was very clean and spacious for my family of 4.  The staff was very friendly and knowledgeable about family friendly restaurants and activities.  I would recommend this hotel to all families!More</t>
   </si>
   <si>
+    <t>Maria A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r292310737-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1008,6 +1119,9 @@
     <t>The hotel itself was fairly clean. We did have an issue with parking one night. I booked the hotel because it said that it provided parking for its guests. Well it turns out that if they are totally book, then they don't have parking spots for all their guests, and it is first come first serve. They expect the guests who do not have a parking spot to pay for parking in another hotels lot, and they refused to cover the parking fee. We also lost power for over 24 hours (along with the surrounding area), because it is a smaller hotel, there was no generator to get the electricity back on. So there was no AC (and no window that could open) and no hot water for the shower. Also, continental breakfast means: coffee, tea, orange juice, a prepackaged muffin or prepackaged danish. Overall, if I went back to Long Beach, I would not stay here again.More</t>
   </si>
   <si>
+    <t>Salyzsong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r286595234-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1021,6 +1135,9 @@
   </si>
   <si>
     <t>The location was wonderful,  the boardwalk was an easy 5 min walk away.  The rooms are clean, nicely appointed,  and roomy. The staff are very competent and pleasant. Packaged pastries and coffee (tasty) are available for breakfast. Free wifi and lots of cable channels (including HBO and Cinemax + others) to choose from. Our only issue was that we purchased on Priceline and only had a queen bed for 3 of us,  2 adults/one child. So make sure you know what you are getting before booking,  other than that everything was great  : )</t>
+  </si>
+  <si>
+    <t>PCfan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r285084072-Rodeway_Inn-Long_Beach_California.html</t>
@@ -1043,6 +1160,9 @@
     <t>I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.  
     About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.  
     The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces...I was pleasantly surprised at how very, very nice the room was-clean, recently updated, and attractive.  HOWEVER, when we got back to the motel around 10 p.m., there wasn't a parking place to be found.  We went into the office and were told by the clerk that we could wait until she was off duty (in maybe 20 minutes) and take her parking place when she left.  WHAT???  An employee was taking up a parking spot that should have been left for a paying customer.  My husband parked our car around the corner in the parking lot of a restaurant.  We were told by the clerk that we'd be towed from there in about 20 minutes.      About that time, two more vehicles showed up and were in the same predicament.  I went back into the office and asked the clerk to move her car, and her response was, "Where do you want me to park?"  I suggested the restaurant parking lot!  After the drivers of the other two cars complained, the clerk begrudgingly moved her car and we parked in her spot.  I felt bad for the two other drivers who were in a pickle.  There were no spots on the street, but according to the clerk, there was a lot a ways down the street where they could park for $15.      The next morning I counted rooms and parking spaces, and it appears this motel is about 10 spaces short of accommodating a full-house.  That's bad enough, but when the employees take up spaces?????    So, roll the dice if you'd like.  The rooms are very nice, but you could be walking for blocks and paying $15 to park in a remote lot.  Next time I'll look for a room where I know I may park my car at the same location.More</t>
+  </si>
+  <si>
+    <t>JaxTom</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r279764980-Rodeway_Inn-Long_Beach_California.html</t>
@@ -1075,6 +1195,9 @@
 We had no problems...We stayed here for one week for a conference at the Long Beach Convention Center, which is about 5-6 blocks away (a half mile walking from door to door).  This is an older style, two story property with exterior hallways that overlook the parking area in the center.  The facility is very well kept up and updated inside and out.  The rooms:There is only a shower stall, no tub, in the bathrooms. Housekeeping was good, although they come by later in the afternoon which makes an early check-in a problem.  There was a strong smell of air freshener the first day, but opening the windows and turning the fan on took care of that.  There are a mini-fridge and microwave in the rooms.  The bed was comfortable but the pillows were small.  There were many cable TV stations available.  The shower drain was very slow the first day, but when we let the office know about it they sent a maintenance person right away to fix it.Amenities:Breakfast is from 7 - 10 am daily and consists of coffee, orange juice, and prepackaged pastries.  Parking is free, but limited in spaces.  We were able to find a parking space each night though while we were there.  It can be a tight squeeze to exit the parking area (you have to go out a narrow alley) if you have a longer vehicle.Safety and Security:We had no problems with safety/security, although I would recommend a second floor room as the first floor rooms have bathroom windows that overlook the alley behind the hotel. The first night I woke up at 4 AM to hear someone in the alley below behind the hotel because I had the bathroom window open, but I did not hear any other late night activity.Nearby:   There is a nice Von's Supermarket one block away which I used a lot for inexpensive meals.  There are a couple of cafes nearby and a Subway sub shop across the street as well.  The beach is a simple three block walk away and the Aquarium and Convention Center/Performing Arts Center are about five to six blocks away.Of note:  There is a high-rise building being constructed a block away (as of summer 2015) and they begin their construction shift at 7 AM.  I am an early riser, but those wishing to sleep in may want to consider rooms on the south side of the property and keeping their windows closed.All in all, the free parking, free but limited breakfast, the location, friendly staff, and well kept facilities make this a good value option for the area.  We would stay again.More</t>
   </si>
   <si>
+    <t>PastorJeff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r276586203-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1096,6 +1219,9 @@
     <t>We had a conference at the Convention Center and decided to save a few bucks and walk the half mile each way.  The room was clean and always felt very safe.  It was also conveniently located about a block from a decent grocery store and the rooms had fridges and microwaves.  That helped too!  On the downside, cleaning staff did not come until 3-4 pm each day which created problems.  The TV was not reliable and internet must have been connected because you had to log in each time you tried to use your computer.  Our shower leaked big time and the answer we received was to just put down towels.  Also, got a call after 10 PM from front desk on last night that woke us up to confirm our telephone number.  Ugh!  There was some basic packaged rolls and coffee and OJ in lobby.  You are also only a block from the ocean and a great beach.More</t>
   </si>
   <si>
+    <t>GetBackJoeJoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r274848990-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1114,6 +1240,9 @@
     <t>Clarissa was very friendly on the phone when I called for a last minute reservation. Although she only had 2 rooms left, she gave me a great rate on a room that was very comfortable. I got a great nights sleep before my meeting. I wouldn't hesitate to stay at this Rodeway Inn again!More</t>
   </si>
   <si>
+    <t>Mona_Um</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r252282375-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1135,6 +1264,9 @@
     <t>My husband had to attend a conference in Long Beach so we would only be there for 3 nights.  Check in was quick and efficient and they even had our room ready early for us.  The room was a decent size and the the wifi was really good.  The bathroom was disappointing however.  There was some sort of red substance that was splattered along the outside bottom of the toilet.  There was also a wad of hair stuck in the hair dryer.  The shower was very tight (and I'm pretty small) and the shower head in ours was stuck at an awkward angle.  We literally had to stand with our backs flushed against the back of the shower.  The walls/windows were a little thin so we could hear the neighbors talking/running around but it wasn't so bad to keep us up at night.I know they had complimentary continental breakfast but we didn't see it or partake in it.All in all, it was considerably less expensive than the bigger hotels in the area and it was fine for the business trip.More</t>
   </si>
   <si>
+    <t>Inge1854</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r245394962-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1153,6 +1285,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>ritatravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r240965845-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1171,6 +1306,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Mrs Mandy -</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r232921539-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1189,6 +1327,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>gwen450</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r230949824-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1204,6 +1345,9 @@
     <t>Tastefully decorated, clean, and comfortable in a great location within walking distance of the beach, Shoreline Village, Convention Center, Aquarium of the Pacific, grocery store with a Starbucks, and many restaurants.  Great breakfast and lunch right next door at The Breakfast Bar. Refrigerators and microwaves in the room.  My only reservation about rating this a 5 is that the free breakfast is just prepackaged pastries and the coffee is a Bunn coffee dispenser. The staff was very friendly and helpful.</t>
   </si>
   <si>
+    <t>Danielle K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r230020963-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1222,6 +1366,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>barnynurse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r223899523-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1240,6 +1387,9 @@
     <t>Just spent 5 nights &amp; 6 days in Long Beach! What I was most impressed with at Rodeway Inn Long Beach was the cleanliness of the room without the harsh chemical smells that normally make my trip miserable. I was able to wear my contact lenses the entire trip without any "toxic" headaches. I will definitely recommend to others traveling to Long Beach Convention Center! Thank you, owner, Tina P.More</t>
   </si>
   <si>
+    <t>Sandy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r223643181-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1261,6 +1411,9 @@
     <t>I was here 7 nights for the August 2014 Shaklee Convention.  The rooms were very clean and comfortable, recently updated, and quiet.  All of the staff I interacted with were extremely pleasant and accommodating.  I enjoyed having coffee &amp; hot water available all day, and the orange juice, muffins, and danishes in the morning were fresh. (I rarely buy pastries, so the danishes were a treat!) This hotel is a short walk to the Convention Center and Arena, restaurants, the Aquarium, and other attractions.  Bus service is available and easy to use.  I was travelling with a female colleague, and we both felt comfortable and safe, walking to and from the hotel.  I would highly recommend this hotel to others, as my stay was very enjoyable.More</t>
   </si>
   <si>
+    <t>vaz65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r221668220-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1279,6 +1432,9 @@
     <t>I stayed here two night with my family in 2 beds room. very clean and nearly remodeled hotel. Friendly staff. The second room had a full bed and was very small. So, if you travel in a group of 4 adults, you might need to consider a different hotel or book 2  one-bedrooms. The reception room was very small and can hold just a couple of people. The breakfast was below average. Suprisingly parking was not an issue. Location was excellen: a block from a beach and a few blocks from a free shuttle bus "Passport" to go to main attractions.More</t>
   </si>
   <si>
+    <t>Girl4God28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r210487774-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1300,6 +1456,9 @@
     <t>I was pleasantly surprised with this hotel. We spontaneously decided to escape to Long Beach for the weekend and found this very affordable hotel, so we weren't expecting much. It was a large and very clean room. The bathroom was also quite nice. The staff were very helpful the entire time and even left a welcome present with some chocolates. I would definitely stay here again the next time we are there. It is also very close to the beach and many of the attractions in the area. More</t>
   </si>
   <si>
+    <t>bossdiver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r210487519-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1315,6 +1474,9 @@
     <t>My wife and I wanted to escape to Long Beach for a nice little weekend away, and although I was expecting the worst for such a moderately priced hotel within walking distance of the beach, I was very surprised by the "newness" of this hotel. Everything was clean and bright, and I felt very comfortable there. I would highly recommend. More</t>
   </si>
   <si>
+    <t>AnchorageaJackie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r205695697-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1333,6 +1495,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>GyongyiCsoban</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r199137112-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1351,6 +1516,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Sluggo51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r195496654-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1372,6 +1540,9 @@
     <t>We (2 couples-4 people) were cruising out of San Pedro we had booked 2 rooms at this great motel in Long Beach for the end of January, 2014. We had no idea where to stay in Long Beach but this place is just so convenient to everything. The owners and their staff are so helpful and the whole place is kept so clean and tidy. Tea, coffee and orange juice  is provided from the front office at anytime and breakfast consists of a choice Danish Pastries and muffins available from 7am until 10 or 10.30am and these can be warmed in the microwave in your room and it is free.Vons supermarket is a short walk away, Subway is just across the street, a good fish and chip restaurant (Pier 76, 455 E Ocean Bvde) is just 5 mins walk. The free "hop on-hop off" bus is about 8-10 mins stroll away on Long Beach Bvde and this gives you a good look at all of the suburb. It also takes you to the Queen Mary and other places of interest. Great second hand bookshop opposite the Convention Centre in South Pine Street.More</t>
   </si>
   <si>
+    <t>TravelingFamily2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r193702219-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1387,6 +1558,9 @@
     <t>Very nice stay, pleasant, professional staff.  Location is perfect, just a couple blocks away from the marina.  Clean, nice rooms.  Parking a little cramped but otherwise very pleasant.  Close to restaurants and stores.</t>
   </si>
   <si>
+    <t>Donald W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r186443283-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1405,6 +1579,9 @@
     <t>I've stayed in a lot of Choice Hotels and other hotels and this one is the best one ever!I wasn't expecting much when I booked online but was pleasantly surprised with the room and the front desk staff.They went out of their way to ensure I had a comfortable experience. Once I checked in and went to my room the front desk clerk stopped by my room a few minutes later to give me a welcome gift! That's never happened to me in the hundreds of hotels I've stayed at. When I checked out the next day they actually gave me a departing gift as well! Wow!The desk clerks were very attentive and polite and they truly cared about me.The room was perfect. Newly decorated and clean as a whistle. I could not find anything that was wrong with the room (and I looked hard). And that's never happened before!The last time I stayed at a Rodeway was in St George, UT and it was a dump!This hotel is probably in the top three of all the hotels I've ever stayed in my life!Kudos to the management and staff at the Rodeway Inn in Long Beach, CA!  Highest rating ever! And the price was great too. Thank you so much!Don W.More</t>
   </si>
   <si>
+    <t>Camille S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r186182327-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1420,6 +1597,9 @@
     <t>I've stayed in other Rodeway Inns before, and I certainly wasn't expecting anything above average. Their continental breakfast consisted of muffins and pastrys in cellophane and unspecatular coffee. The clerks appeared a little ashamed of it. There is no separate outside sink. Nevertheless, I've also stayed at the Westin in Long Beach, which is a luxury hotel right on Ocean Blvd. The Rodeway Inn came surprisingly close to it. We did not pay extra for fridge or micro. I had a roommate for my stay and I did not feel crowded in the least. It was a really good experience!</t>
   </si>
   <si>
+    <t>AGupta68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r184615354-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1438,6 +1618,9 @@
     <t>Place is not big, reception/breakfast area is very small. Room was clean and looked great. Bathroom was clean and functional. Water pressure in shower was great. Windows in room and bathroom opens to not so clean back ally. No exhaust in bathroom. Small microwave came handy to warm things up while fridge was small and seems to did not cool anything and it was not running when got there. Bed had nice linen but mattresses are not very comfortable and seems of poor quality. There is no breakfast area and hotel provided few danish, muffins, juice and coffe to take to you room. Overall good but would like to find better value at 100$More</t>
   </si>
   <si>
+    <t>harvey44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r181573720-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1459,6 +1642,9 @@
     <t>This is a pretty average motel, but the bed in my room was in very poor condition: pretty broken down.  Also, the WIFI worked very badly: slow and intermittant.  I did not try the breakfast.  The location is handy to the port.More</t>
   </si>
   <si>
+    <t>Lucas5915</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r180350024-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1477,6 +1663,9 @@
     <t>We arrived late in the evening and picked this motel rabdomly. Rate was a bit high to my opinion ($115 inc tax). Girl at check in was very friendly and nice. Parking was good, safe and off the streets. Staff was overlooking all of the secured parkinglot. We requested a double queen and got a room with two beds in two separate spaces. Nice beds, clean and comfortable but the two spaces were extremely small. Not a problem to us as we were just there for one night. But it would not be my choice if I would have to stay more nights. Breakfast was coffee/tea and some sweet rolls/danish that are served in the tiny 'lobby' and have to be taken into your room. Where you have to eat at your bed. Overall not bad for sleep-shower-leave. But not recommended for a longer stay.More</t>
   </si>
   <si>
+    <t>Sofpaint</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r178873545-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1498,6 +1687,9 @@
     <t>First time in LA traveling up from San Diego after cross country road trip and later flying out of LAX. One night stay on September 20th. Check in went smoothly and night staff accepted outdated coupon from HotelSaver booklet which made it a great value at $92 per night including the outrageous CA taxes. Room was newly renovated and well appointed and clean. Room included refrigerator and microwave. No coffee pot but no problem for me as I don't drink coffee but if you need coffee the front desk keeps coffee going all the time. As I said the staff both days were very friendly and I was very happy with the courtyard parking for my rental car. Location was great only one block to the wide, open, free and clean Long Beach and only two blocks to the Pike, the Aquarium and the Queen Mary.More</t>
   </si>
   <si>
+    <t>lwa3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r176303102-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1516,6 +1708,9 @@
     <t>Staff are very friendly here. The location is excellent &amp; an easy walk to most things. Supermarket at end of street, Subway across from it &amp; about 10-15 mins walk to the Pike (entertainment part) &amp; the pier!Downsides of this are the breakfast included is extremely basic. As in muffin/pastry &amp; that is it. Also, the safe key is not included in the price &amp; you have to pay $2 per day to rent the key. And the air conditioning unit is poor. We had the 4 person room &amp; there is only 1 air conditioning unit in 1 of the rooms. It was absolutely boiling. to the point that we had to buy a fan for the other room. The bathroom is very basic too &amp; very small.I would use this motel again but order 2 single rooms next time!Plus sides - free wifi &amp; free parking. And this was available the whole time during our stay!More</t>
   </si>
   <si>
+    <t>Beth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r173954906-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1537,6 +1732,9 @@
     <t>This was my second trip to the Rodeway Inn in Long Beach.  I chose this hotel because it was the only reasonably priced one in the area with free parking.  A friend and I were attending a conference at the Long Beach Arena and this hotel ended up being the perfect choice the first time I booked, so, of course when we returned I chose this hotel again and will continue to stay here in the future.  The room was perfect with a separate sleeping areas with one room with a queen and one room with a double.  It gave us privacy while allowing us to share a room.  The staff is wonderful, very friendly and very welcoming.  They also offer coffee and tea 24 hours and danish in the morning.  I will always stay here when in the area!More</t>
   </si>
   <si>
+    <t>Noah P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r173505089-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1552,6 +1750,9 @@
     <t>The motel is in a great location. It is just blocks from the Passport bus, nice cafes and a large grocery store. The room was comfortable and perfect for my stay. The front desk staff were also welcoming.</t>
   </si>
   <si>
+    <t>BSouliere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r167694335-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1567,6 +1768,9 @@
     <t>Cubby hole motel....Check in 3...room wasnt ready til 445.  The rooms are small and parking is tight.  Check in/front desk is tiny w/ bullet proof glass?.  Breakfast consisted of coffee, OJ and otis spunkenmeyer muffins...weak.  Bed not so good for wife...worn and sagging to middle.  AC unit loud and annoying.  Parked cars a foot from your door.  Fair location.  Wont be going back.</t>
   </si>
   <si>
+    <t>Barbara_C187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r167206520-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1585,6 +1789,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>davrodrg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r165796159-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1600,6 +1807,9 @@
     <t>Awesome toiletries.The "1 queen bed - 1 double bed" room is awesome!  Has a separate room for one of the beds!  It's like a mini suite.Breakfast is horrible, I wish my rate was a little lower, but otherwise, it's hard to say a single thing bad about this place.</t>
   </si>
   <si>
+    <t>Sariotti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r161496539-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1618,6 +1828,9 @@
     <t>They've done a great Job renovating this hotel. The inside rooms are very modern. The bathrooms are up-to-date as well. Only complaint are the commodes are a little small. The beds were extremely comfortable. Would stay there again in a heartbeat. Great value!More</t>
   </si>
   <si>
+    <t>rickandcarole01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r161068522-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1639,6 +1852,9 @@
     <t>We arrived to check in about 09:30 after an o/night flight and we were given a room at no extra cost.rooms are kept clean and the toiletries are kept well stocked. Location is quiet and in easy walking distance of a supermarket and lots of restaurants and coffee shops. Walking distance to Walmart and downtown as well about 15 min. Recommend this motel if you are looking for a good budget motel.More</t>
   </si>
   <si>
+    <t>Hepcat16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r160794705-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1660,6 +1876,9 @@
     <t>I visited Long Beach on a Saturday getaway form Los Angeles with my girlfriend and when we arrived the room was ready about 2 hours early. The front desk lady was very nice and when we entered my room I was surprised at how nice and clean it was given the price. Once we were settled in we were able to walk everywhere from downtown to the waterfront easily. The hotel was a great value and it made the trip very easy and enjoyable.More</t>
   </si>
   <si>
+    <t>Marina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155940580-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1681,6 +1900,9 @@
     <t>I stayed at the roadeway for two nights recently. I was very surprised at house immaculate the room, reception and other parts of the complex was considering the very reasonable rates per room. Parking was free and always available. free breakfast also a big plus. The inn is located in a perfect location close to the attractions of long beach. I would stay there again if visiting again. Just brilliant! More</t>
   </si>
   <si>
+    <t>Sherri2424</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155117610-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1699,6 +1921,9 @@
     <t>Great rooms with excellent location...walking distance to Queen Mary and Aquarium of the Pacific. Friendly and helpful staff. Clean and spacious rooms. Would definitely stay again!! Very kid friendly!More</t>
   </si>
   <si>
+    <t>SDBill85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r155019413-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1717,6 +1942,9 @@
     <t>This is a great hotel a 15 minute walk from the Long Beach Convention Center. My room had a refrigerator and microwave (great for warming pastries from the free continental breakfast). There's also a nice flat screen TV with HBO, a desk for your laptop, and free Wifi. It's not a new hotel, but it's very confortable and well maintained. Lots of nice ammeneties like an iron and ironing board, a hair dryer, and a generous assortment of travel helpers (toothbrush, razor, sewing kit...) in the bathroom. Be a little careful if you have an RV, the parking lot is kind of tight. Otherwise, you can't go wrong.More</t>
   </si>
   <si>
+    <t>Cpyles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r151666742-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1735,6 +1963,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Stephan J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r148412163-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1756,6 +1987,9 @@
     <t>Recently my great friends visited Long Beach and they wouldn't stop raving about how beautiful the town was. Unfortunately for them, they stayed at a motel that was rubbish. It was so awful that they changed accommodations the next night. They moved to the Rodeway Inn because it was near the town centre. During my stay at the Rodeway, we were pleased. The hotel was quite lovely and good fun! The lady that worked in the front gave wonderful recommendations of nearby places to eat. This inn is literally just minutes from downtown, which was convenient for my wife and me. This hotel went above and beyond with location, staff and comfort. I can most definitely say that I will come back again. Cheers to Rodeway.More</t>
   </si>
   <si>
+    <t>Ryan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r148039435-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1771,6 +2005,9 @@
     <t>We spent the weekend here on our way down to San Diego and was very happy that we had stayed here at the Rodeway Inn. This property in Long Beach was small, but had really clean and comfortable rooms. The bed was very comfortable and the free internet was quite handy. Our room had a flat panel television as well as modern, up to date furnishings. We went to a market up the street to buy some snacks and sundry and had used the small refrigerator and microwave in the room. The small amenities in the bathroom were quite nice as well. Overall, this property was quite nice.</t>
   </si>
   <si>
+    <t>glegh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r137411231-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1789,6 +2026,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>pm2nm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r136985239-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1804,6 +2044,9 @@
     <t>At the last minute, I needed a room near the convention center in Long Beach and had to stick to a budget.  Stayed here four years ago and this place needed some TLC however the price was right.  Not sure if there is new management however the place was updated.  My room was very clean plus the beds and pillows very comfortable..  The staff was very helpful when I asked for directions and kept my luggage all day after I checked out.  Location was great as it is just a short walk to the convention center.  Will be back next year!</t>
   </si>
   <si>
+    <t>WildGoose_BoulderCO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r136838632-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1822,6 +2065,9 @@
     <t>We arrived around 8pm and were unable to find any available parking at the hotel...limited number of spaces were all taken.  We parked down the street and walked up to the receptionist who was seated behind a protective window talking to her friend in the office.  We politely asked if there was any overflow parking in the back of the hotel, and she was very rude in her response, quoting the reservation details (which admittedly we did not notice when we booked the hotel) that said "Limited complimentary parking," and said that we could park at the hotel across the street for an extra $10.  Given the inconvenience and her poor attitude, I asked to speak to her manager, and she replied that he wasn't available. We ended up going down the street to one of the convention center hotels, which for $30 more in price had much nicer amenities (pool, hot tub, plenty of parking, and very nice customer service) and was in a much nicer neighborhood. More</t>
   </si>
   <si>
+    <t>Jacob R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r133468862-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1840,6 +2086,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Roberto S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r133392251-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1858,6 +2107,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r129953039-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1876,6 +2128,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>david r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r124629215-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1894,6 +2149,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Test C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r123888068-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1912,6 +2170,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Kimberly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r120108687-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1930,6 +2191,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Thomas W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117534808-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1948,6 +2212,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Emma N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117445301-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1963,6 +2230,9 @@
     <t>I thoroughly enjoyed my stay here while I was in Long Beach. The room was very modern and super clean. Like the reviews early, the bed was very comfortable. I too had overslept and had to ask for a late checkout.The Rodeway Inn was quite nice for us, super clean and comfortable and reasonably priced as well!</t>
   </si>
   <si>
+    <t>Eileenonawall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r117002480-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1981,6 +2251,9 @@
     <t>I was actually very happy here.Rooms are very clean, updated, and location was great. FRE parking !  Super pleased. So comfortable we almost slept through Check out and that never happens. We couldn't hear hardly anything that was going on outside our room and it was completely booked. The only thing that was a little disappointing was when we pulled up... Looks like a cheap motel and more than likely only crackheads would be there..... But when you take a closer look it's not at Like that all.  I guess you can't judge A book by its cover. It's actually a well kept place...no trash or filth. I was very pleased. Good rates too as compared to other locations in area. By the way  theres a  flyer in the room for a fantasic pizza place ( forgot the name but you'll know since there's a large laminated flyer) .  It's  freakin great !More</t>
   </si>
   <si>
+    <t>SCShaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r110440229-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2002,6 +2275,9 @@
     <t>We were taking an extended road trip around the US to celebrate our retirement and were visiting my sister in Long Beach.  We needed a hotel since she lives in a small condo. I had stayed at the Holiday Inn  - Airport on previous visits, but the price there was not acceptable this time.  The Rodeway was a gamble, but turned out to be a winner!  It was incredibly clean and quiet.  The rooms were a bit small but the size was acceptable.  There didn't seem to be a pool or business center, but since we were visiting family that was not important on this trip.  The free wireless wi fi was  secure, which I find unsual at most hotels. My wife and I stayed 4 nights and couldn't have been more pleased with the facility and the staff.  Don't pass this one up if you want clean, inexpensive, safe, albiet simple, facilities.More</t>
   </si>
   <si>
+    <t>lakejacquot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r86107443-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2023,6 +2299,9 @@
     <t>Good, safe, clean location downtown, minutes from almost everything including beaches, marina, restaurants, bars, clubs and if you have to work,a biz center across the street. If you choose you can leave your car and walk. Not a walker, take the free Passport bus downtown or for a nominal cost just about anywhere in Long Beach.Priced below other hotels in the area and can't be beat for a visit to Long Beach.If you want a suite with all the amenities, this is not the place.If you want a simple, clean, well maintained albeit older property with a courteous andhelpful staff and owners, this is it. The rooms are a bit small but always spotless.We've slept soundly at least a dozen nights this year and will definitely be back.Best Hotel Value in Long BeachMore</t>
   </si>
   <si>
+    <t>muntechx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r84009686-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2038,6 +2317,9 @@
     <t>Stayed here for the Long Beach marathon.  Room was very clean, bed comfortable and the bathroom done in nice marble.  Had fridge, microwave and  TV. Managed a good night sleep before my race on the comfortable mattress. It's not a Marriott but pleasant nonetheless.  Very convenient to shops and attractions of long beach and felt like a safe area. Very nice staff.</t>
   </si>
   <si>
+    <t>NITAOB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r58769807-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2056,6 +2338,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>MSWeaver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r56427713-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2074,6 +2359,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>mrbiskit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r54236956-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2089,6 +2377,9 @@
     <t>For the price the hotel was very clean and the bed comfortable. They had fast internet for free as well. Also it was very quick to reach from the Long Beach Convention Center.What I was really amazed by is that even though I booked on line and had a bargain rate, when I had to leave early they gave me a refund for that night I didn't take and were very helpful and friendly about it.I would say this is a great bargain. I will be staying here again in the future.</t>
   </si>
   <si>
+    <t>lonnie99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r39028040-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2110,6 +2401,9 @@
     <t>My Husband and I Showed Up to find there was no parking, Parking lot was very tiny.. SO much, that some people took up two parking spots to be assured they can get out when they need to! We had a truck parked 2 feet from our door and had to turn sideways to get in the room. The room was nice but very very small w/ no bath tub.  The walls we paper thin and humid. We even walked over to the travelodge next door to check them out and ended up booking the rest of the week over there for 10 Dallas less!! We were already committed to staying at the roadway for that night , no biggie. the next morning about 9am I opened the door to get some fresh air and was asked to shut it by a man with a leaf blower, at 9:15 Some one called Me and asked Me if I was checking out and when? I was shocked!! Thank God I was not sleeping in to 10am lol Well.. We stayed at the travelodge that night and for the rest of the week but on the day of leaving at 9:45 We hear a LOUD jack hammer coming from the roadway!! "NO JOKE" SO beware!!More</t>
   </si>
   <si>
+    <t>Cornus-Florida</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r29803797-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2131,6 +2425,9 @@
     <t>I was hesitant to stay at the Rodeway Inn in Long Beach after I read the remarks from others; but decided to stay after receiving a great rate from the hotel’s website. I had reserved a room with two beds and none smoking online. Our room was clean and the beds were extra comfy. The bathroom seemed recently redone. The shower’s wall and the sink had granite and were immaculate. The Convention Center was close by. We walked to our meetings everyday. That saved us at least $48 in parking charges. A good rate and no parking charges. I’m glad that we had chosen the Roadway Inn. It was worked well for. us.Janet L.More</t>
   </si>
   <si>
+    <t>TankManager</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r26618806-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2152,6 +2449,9 @@
     <t>I chose this Inn because it's part of the Choice Hotels group and I needed a hard wired internet connection for some computer updating I was doing for a client.What a horrible place. the rooms were small and I mean VERY SMALL.. I am going to guess 10 x 12 feet. The carpet is worn down and the bathroom is-is -is a 3 by 8 foot corridor with a stall shower. I have been in inside cabins of cruise ships that were larger than this room! I remember staying in a Motel 6 years ago because it was all that was available and I think I would take that over this Rodeway inn any day. They serve what is called breakfast in the morning. I actually laughed when I saw what they served; a plastic covered danish and instant coffee---all in the area where you check in. Plicture the check in area as a phone booth with security glass for you to pass your ID and Credit card through.I checked out after 1 night--moved up the road ( 1 mile) to a Comfort Inn and Suites on Willow where I stayed in a suite for $ 5.00 more than the Rodeway.Oh and one other thing--you have no problem hearing the argument 3 rooms down and cars pulling in and out of the parking lot at all hours.More</t>
   </si>
   <si>
+    <t>Motafina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r17570150-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2173,6 +2473,9 @@
     <t>The toilet paper is funny, our card key did not work every time we came back (exactly 3 times), we had to ask for more pillows twice.  The ice machine went off at 7 am for 2 and 1/2 hours echoing through the cement hallway outside our paper thin door the first morning.  30 minutes later around 10 am there was a man hammering tiles outside our door, might I add on July 4th.  They were very nice in helping us with all of our problems, we moved to a better room the second night, we got our pillows, but the only thing in their guest directory was information on their other motels.  The pad of paper is too small and the only thing on is "Cool Runnings".  The shower sounds like a dying cat when you turn the water on.  But it is clean and looks nice enough, there is always parking and it is a prime location.  We went to the Long Beach Cafe around the corner because we had heard good things about it, and it was indeed amazing.  It isn't exactly cheap but it was a large portion and the best breakfast and service we have ever had.Over all experience with this motel was bad, there were just too many problems and we couldn't sleep!  But it was close enough to walk to shoreline village and it was cheap.More</t>
   </si>
   <si>
+    <t>bobapanbeers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r16539355-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2194,6 +2497,9 @@
     <t>We stayed there on May 16th.  At first everything was great.  It was a bit expensive at 90 $ a night but the room was clean and the bathroom was recently renovated with new tiles and a new counter.  There was quite a bit of water damage on the ceilling of the bathroom.  At about 8 pm we saw a cockroach crawling on the wall.  Where there's one cockroach, that usually meana that there are many many more.  We will not stay there next time even if the room was nice and clean.On the bright side, I forgot my shoes and only realised it once back home in Qc City, about 3500 miles away.  The front desk was nice enough to send them to me (I paid for the shipping of course).  That's why I'm giving them 2 stars.More</t>
   </si>
   <si>
+    <t>NancyC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r14186422-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2213,6 +2519,9 @@
   </si>
   <si>
     <t>My husband and I stayed on a Saturday night prior to a cruise and found the location very convenient.  $21 cab ride from Long Beach Airport and $21 cab ride to Los Angeles cruise pier.   Walked a short 2 blocks to a full grocery store Sunday morning before our cruise.  Walked to Shoreline Village to shops and marina activity including a meal outside overlooking the water.  Room was very clean and we couldn't have been any closer to the street.  We didn't notice any street noise and this was a Sat. night.  We had the first floor front sidewalk room.  However the window didn't open, so I felt very secure.  The neighborhood felt safe.  The staff was most accommodating and let us return after our cruise just to hold our luggage for 4 hours because we had a late flight.   We would return without even checking around to this friendly, clean, helpful, convenient, and fairly priced motel.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r4583292-Rodeway_Inn-Long_Beach_California.html</t>
@@ -2235,6 +2544,9 @@
 Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean...Our family of three stayed for one Saturday night at the Rodeway Inn in Longbeach before leaving for Carnival Pride the following day.  It was a two-story motor hotel.  If you are interested in a nice room at a decent price, I would recommend it. We had two very clean bedrooms and a bathroom, like a mini-suite.  Many members of Trip Advisor recommended the Long Beach Hotel, near the cruise ship.  That was $158.  The Rodeway was $109.  Both add taxes-$129 for us total.  We stayed only 9 hours there, and it was very clean, the family running it was very freindly, there was a great breakfast place right around the corner, we were one block from a beautiful beach where we walked,  and we were in the middle of a very nice residential and hotel area.  The bus stop was a one-minute walk.  We chose to roll and stroll our suitcases for four blocks, look at the Sunday scenery, jump on a free bus to the cruise ship terminal, and arrive in ten minutes.Downside-  We saved only fifty dollars, so this might seem crazy to some.  We had a room on the second floor and had to carry our suitcases up the front outside stairway.  The spic and span little lobby had the cashier enclosed in plexiglass, as if it were a high crime area, which was a bit off-putting.  Yet, the area seemed very safe and clean and upscale.  A couple of blocks up, away from the hotel and beach I saw a few homeless, but not there. If you needed to take a taxi, it would erase much of the savings.Looking back, for us the area was fun and an adventure, and we would stay there again.More</t>
   </si>
   <si>
+    <t>Salmon15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r4469169-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2283,6 +2595,9 @@
     <t>Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather...Okay here it is, the nail hit straight on the head. I found the lady at the front desk trying her best to accomodate, but falling short. Check in time was at three and at ten after two the room was still not ready. She said it would be forty-five minutes. Well this would fit into the check in time of three, except the family checking in after me whom my family was traveling with, was able to check right into a room with no delays.  They apparently assign each reservation a room and if your room has had no occupants the night before, your room will be available when you arrive, instead of a first come first serve check in policy. Also watch out for their odd check-in practice of having you sign a blank credit card slip. I did this despite a warning from a previous post,because I simply forgot to notice, but I was uneasy for the entire two nights. The parking lot is very small, tight, and exits into a narrow 'dark at night' alley. I wouldn't bring a full size vehicle here folks. The A/C issue is a real drag. Not being able to have the A/C (or Heater)on while you are out means coming back to a really uncomfortable room. No swimming pool was a negative for my family looking for a way to cool off from the hot room.  The room was rather nice, no bath tub though for those with small children. Rooms with Two beds such as mine have one bed semi-separated with a partial wall. That room never cools off and the occupants are miserable during the night.The pluses are being so  close to the beach, the pike, aquarium, etc. for half the cost of the other hotels. The difference is they fill in the negatives mentioned here with the higher priced room which I personnally think is worth it. If you are looking for a nice room to stay for cheap, that is this close to the beach this is it, but for my family we could not stay here again, because of all the little issues. We will have to bite the bullet and pay premium. You get what you pay for. Don't be fooled corporate photos and facility descriptions.More</t>
   </si>
   <si>
+    <t>SummersOfff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r3499319-Rodeway_Inn-Long_Beach_California.html</t>
   </si>
   <si>
@@ -2317,6 +2632,9 @@
   </si>
   <si>
     <t>Stay in February 2005.  Rooms are simple and clean with large TVs.  Our stay was comfortable and the staff exceptionally helpful and nice.  Continental breakfast could use some improvement as it consists of boxed juices and packaged danishes.  The walk to "downtown" and the movie theatre/restaurant areas is several blocks but still doable.</t>
+  </si>
+  <si>
+    <t>auntieweez</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d84049-r1791356-Rodeway_Inn-Long_Beach_California.html</t>
@@ -2844,43 +3162,47 @@
       <c r="A2" t="n">
         <v>17482</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -2898,56 +3220,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17482</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2959,56 +3285,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17482</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3020,56 +3350,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17482</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3087,56 +3421,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17482</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" t="s">
         <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3154,56 +3492,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17482</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3219,56 +3561,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17482</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3280,56 +3626,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17482</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3345,56 +3695,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17482</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3406,56 +3760,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17482</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3467,56 +3825,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="X11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17482</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3534,56 +3896,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17482</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3601,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17482</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3668,56 +4038,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17482</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3735,56 +4109,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17482</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="J16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="K16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3802,56 +4180,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X16" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y16" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17482</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3869,56 +4251,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17482</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3930,56 +4316,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17482</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3997,56 +4387,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17482</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4058,56 +4452,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17482</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4125,56 +4523,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17482</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4192,56 +4594,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17482</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4259,56 +4665,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X23" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17482</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4324,56 +4734,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X24" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17482</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="O25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4385,56 +4799,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X25" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17482</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="L26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4446,47 +4864,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="X26" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17482</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -4503,56 +4925,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X27" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17482</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4570,56 +4996,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X28" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17482</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O29" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4637,56 +5067,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17482</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4702,56 +5136,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17482</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4769,56 +5207,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17482</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>317</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4830,56 +5272,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X32" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17482</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="J33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4897,56 +5343,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17482</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4962,56 +5412,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X34" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17482</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5031,50 +5485,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17482</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>345</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5094,50 +5552,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17482</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5157,50 +5619,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17482</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>360</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="J38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5220,50 +5686,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>17482</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>367</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5277,50 +5747,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17482</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>373</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5338,50 +5812,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>17482</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="K41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5399,56 +5877,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X41" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>17482</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>387</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5466,56 +5948,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X42" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>17482</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>395</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5533,56 +6019,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X43" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>17482</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>402</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="L44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5600,56 +6090,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X44" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>17482</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>410</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5663,50 +6157,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>17482</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>417</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="O46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5724,50 +6222,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>17482</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>424</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="J47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="K47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5781,50 +6283,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>17482</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>431</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="K48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="O48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5844,50 +6350,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>17482</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5907,41 +6417,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>17482</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5968,56 +6482,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X50" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>17482</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6033,56 +6551,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X51" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>17482</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6100,56 +6622,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X52" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>17482</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6161,56 +6687,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X53" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>17482</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>474</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="K54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6222,56 +6752,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X54" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>17482</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="J55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="K55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="O55" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6295,50 +6829,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>17482</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="L56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6362,50 +6900,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>17482</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>494</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="J57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="K57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="L57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6429,50 +6971,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>17482</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>502</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="J58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="K58" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="L58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O58" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6496,50 +7042,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>17482</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>508</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="J59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="K59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="L59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6563,50 +7113,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>17482</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O60" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6630,50 +7184,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>17482</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>521</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="J61" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O61" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6695,56 +7253,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X61" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>17482</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>528</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>533</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="O62" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6766,56 +7328,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X62" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>17482</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>536</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="K63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="L63" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6827,56 +7393,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X63" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y63" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>17482</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>543</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="J64" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="K64" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="L64" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="O64" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6898,47 +7468,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X64" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y64" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>17482</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>551</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="J65" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="K65" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="L65" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -6967,50 +7541,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>17482</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>558</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="J66" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="K66" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="L66" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7034,50 +7612,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>17482</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>566</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>502</v>
+        <v>568</v>
       </c>
       <c r="J67" t="s">
-        <v>503</v>
+        <v>569</v>
       </c>
       <c r="K67" t="s">
-        <v>504</v>
+        <v>570</v>
       </c>
       <c r="L67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="O67" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7101,50 +7683,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>17482</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>572</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="J68" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="K68" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="L68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7168,50 +7754,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>17482</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>578</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="J69" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="K69" t="s">
-        <v>514</v>
+        <v>582</v>
       </c>
       <c r="L69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7235,50 +7825,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>515</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>17482</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>585</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="J70" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="K70" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="L70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="O70" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7302,41 +7896,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>17482</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>591</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="J71" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="K71" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="L71" t="s">
-        <v>526</v>
+        <v>596</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7363,56 +7961,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X71" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y71" t="s">
-        <v>527</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>17482</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>598</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="J72" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="K72" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="L72" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7424,56 +8026,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X72" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y72" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>17482</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>606</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
       <c r="J73" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
       <c r="K73" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
       <c r="L73" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7495,56 +8101,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X73" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y73" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>17482</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>614</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="J74" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="K74" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="L74" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="O74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7556,56 +8166,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X74" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y74" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>17482</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>622</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="J75" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="K75" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="L75" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="O75" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7627,56 +8241,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X75" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y75" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>17482</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>629</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="J76" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="K76" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="L76" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="O76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7698,56 +8316,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X76" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y76" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>17482</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>636</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>561</v>
+        <v>637</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="J77" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="K77" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="L77" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>566</v>
+        <v>642</v>
       </c>
       <c r="O77" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7761,50 +8383,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>17482</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>643</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="J78" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="K78" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="L78" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7828,50 +8454,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>17482</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>651</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="J79" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="K79" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="L79" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="O79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7895,50 +8525,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>17482</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>657</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>579</v>
+        <v>658</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>580</v>
+        <v>659</v>
       </c>
       <c r="J80" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="K80" t="s">
-        <v>582</v>
+        <v>661</v>
       </c>
       <c r="L80" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="O80" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7962,50 +8596,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>583</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>17482</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>664</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="J81" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="K81" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="L81" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="O81" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8029,50 +8667,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>17482</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>670</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="J82" t="s">
-        <v>592</v>
+        <v>673</v>
       </c>
       <c r="K82" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="L82" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="O82" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8086,50 +8728,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>17482</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>677</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="J83" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="K83" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
       <c r="L83" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8153,50 +8799,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>17482</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>684</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>602</v>
+        <v>685</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>603</v>
+        <v>686</v>
       </c>
       <c r="J84" t="s">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="K84" t="s">
-        <v>605</v>
+        <v>688</v>
       </c>
       <c r="L84" t="s">
-        <v>606</v>
+        <v>689</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>607</v>
+        <v>690</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8218,50 +8868,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>606</v>
+        <v>689</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>17482</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>691</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>608</v>
+        <v>692</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>609</v>
+        <v>693</v>
       </c>
       <c r="J85" t="s">
-        <v>610</v>
+        <v>694</v>
       </c>
       <c r="K85" t="s">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="L85" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>613</v>
+        <v>697</v>
       </c>
       <c r="O85" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8285,50 +8939,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>612</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>17482</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>698</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>615</v>
+        <v>700</v>
       </c>
       <c r="J86" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="K86" t="s">
-        <v>617</v>
+        <v>702</v>
       </c>
       <c r="L86" t="s">
-        <v>618</v>
+        <v>703</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>619</v>
+        <v>704</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8352,50 +9010,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>618</v>
+        <v>703</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>17482</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>705</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>621</v>
+        <v>707</v>
       </c>
       <c r="J87" t="s">
-        <v>622</v>
+        <v>708</v>
       </c>
       <c r="K87" t="s">
-        <v>623</v>
+        <v>709</v>
       </c>
       <c r="L87" t="s">
-        <v>624</v>
+        <v>710</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>625</v>
+        <v>711</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8419,50 +9081,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>624</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>17482</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>712</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>626</v>
+        <v>713</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
       <c r="J88" t="s">
-        <v>628</v>
+        <v>715</v>
       </c>
       <c r="K88" t="s">
-        <v>629</v>
+        <v>716</v>
       </c>
       <c r="L88" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>631</v>
+        <v>718</v>
       </c>
       <c r="O88" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8486,50 +9152,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>630</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>17482</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>719</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>633</v>
+        <v>721</v>
       </c>
       <c r="J89" t="s">
-        <v>634</v>
+        <v>722</v>
       </c>
       <c r="K89" t="s">
-        <v>635</v>
+        <v>723</v>
       </c>
       <c r="L89" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="O89" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8549,50 +9219,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>17482</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>726</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>639</v>
+        <v>728</v>
       </c>
       <c r="J90" t="s">
-        <v>640</v>
+        <v>729</v>
       </c>
       <c r="K90" t="s">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="L90" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8612,50 +9286,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>17482</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>732</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>644</v>
+        <v>734</v>
       </c>
       <c r="J91" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="K91" t="s">
-        <v>646</v>
+        <v>736</v>
       </c>
       <c r="L91" t="s">
-        <v>647</v>
+        <v>737</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8675,50 +9353,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>648</v>
+        <v>738</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>17482</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>739</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="J92" t="s">
-        <v>651</v>
+        <v>742</v>
       </c>
       <c r="K92" t="s">
-        <v>652</v>
+        <v>743</v>
       </c>
       <c r="L92" t="s">
-        <v>653</v>
+        <v>744</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>654</v>
+        <v>745</v>
       </c>
       <c r="O92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8742,50 +9424,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>655</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>17482</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>747</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>656</v>
+        <v>748</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>657</v>
+        <v>749</v>
       </c>
       <c r="J93" t="s">
-        <v>658</v>
+        <v>750</v>
       </c>
       <c r="K93" t="s">
-        <v>659</v>
+        <v>751</v>
       </c>
       <c r="L93" t="s">
-        <v>660</v>
+        <v>752</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>661</v>
+        <v>753</v>
       </c>
       <c r="O93" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8809,50 +9495,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>662</v>
+        <v>754</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>17482</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>755</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>663</v>
+        <v>756</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="J94" t="s">
-        <v>665</v>
+        <v>758</v>
       </c>
       <c r="K94" t="s">
-        <v>666</v>
+        <v>759</v>
       </c>
       <c r="L94" t="s">
-        <v>667</v>
+        <v>760</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>661</v>
+        <v>753</v>
       </c>
       <c r="O94" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -8876,50 +9566,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>667</v>
+        <v>760</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>17482</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>761</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>668</v>
+        <v>762</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>669</v>
+        <v>763</v>
       </c>
       <c r="J95" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="K95" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="L95" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="O95" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8943,50 +9637,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>17482</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>768</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>674</v>
+        <v>769</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="J96" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
       <c r="K96" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
       <c r="L96" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="O96" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9010,50 +9708,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>678</v>
+        <v>773</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>17482</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>775</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>680</v>
+        <v>776</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="J97" t="s">
-        <v>682</v>
+        <v>778</v>
       </c>
       <c r="K97" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="L97" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="O97" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9077,50 +9779,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>17482</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>781</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>685</v>
+        <v>782</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>686</v>
+        <v>783</v>
       </c>
       <c r="J98" t="s">
-        <v>687</v>
+        <v>784</v>
       </c>
       <c r="K98" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="L98" t="s">
-        <v>689</v>
+        <v>786</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>690</v>
+        <v>787</v>
       </c>
       <c r="O98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9144,50 +9850,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>17482</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>789</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>692</v>
+        <v>790</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>693</v>
+        <v>791</v>
       </c>
       <c r="J99" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
       <c r="K99" t="s">
-        <v>695</v>
+        <v>793</v>
       </c>
       <c r="L99" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="O99" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9211,50 +9921,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>698</v>
+        <v>796</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>17482</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>797</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>699</v>
+        <v>798</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>700</v>
+        <v>799</v>
       </c>
       <c r="J100" t="s">
-        <v>701</v>
+        <v>800</v>
       </c>
       <c r="K100" t="s">
-        <v>702</v>
+        <v>801</v>
       </c>
       <c r="L100" t="s">
-        <v>703</v>
+        <v>802</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="O100" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -9278,50 +9992,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>705</v>
+        <v>804</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>17482</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>805</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>706</v>
+        <v>806</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>707</v>
+        <v>807</v>
       </c>
       <c r="J101" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
       <c r="K101" t="s">
-        <v>709</v>
+        <v>809</v>
       </c>
       <c r="L101" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
       <c r="O101" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P101" t="n">
         <v>2</v>
@@ -9345,50 +10063,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>712</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>17482</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>813</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>713</v>
+        <v>814</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="J102" t="s">
-        <v>715</v>
+        <v>816</v>
       </c>
       <c r="K102" t="s">
-        <v>716</v>
+        <v>817</v>
       </c>
       <c r="L102" t="s">
-        <v>717</v>
+        <v>818</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>718</v>
+        <v>819</v>
       </c>
       <c r="O102" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P102" t="n">
         <v>2</v>
@@ -9410,50 +10132,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>719</v>
+        <v>820</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>17482</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>821</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>720</v>
+        <v>822</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>721</v>
+        <v>823</v>
       </c>
       <c r="J103" t="s">
-        <v>722</v>
+        <v>824</v>
       </c>
       <c r="K103" t="s">
-        <v>723</v>
+        <v>825</v>
       </c>
       <c r="L103" t="s">
-        <v>724</v>
+        <v>826</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>725</v>
+        <v>827</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9477,41 +10203,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>726</v>
+        <v>828</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>17482</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>829</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>727</v>
+        <v>830</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>728</v>
+        <v>831</v>
       </c>
       <c r="J104" t="s">
-        <v>729</v>
+        <v>832</v>
       </c>
       <c r="K104" t="s">
-        <v>730</v>
+        <v>833</v>
       </c>
       <c r="L104" t="s">
-        <v>731</v>
+        <v>834</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
@@ -9530,41 +10260,45 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>732</v>
+        <v>835</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>17482</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>836</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>734</v>
+        <v>838</v>
       </c>
       <c r="J105" t="s">
-        <v>735</v>
+        <v>839</v>
       </c>
       <c r="K105" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="L105" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
@@ -9591,41 +10325,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>17482</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>829</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>739</v>
+        <v>843</v>
       </c>
       <c r="J106" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="K106" t="s">
-        <v>741</v>
+        <v>845</v>
       </c>
       <c r="L106" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
@@ -9652,41 +10390,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>17482</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>829</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>744</v>
+        <v>848</v>
       </c>
       <c r="J107" t="s">
-        <v>745</v>
+        <v>849</v>
       </c>
       <c r="K107" t="s">
-        <v>746</v>
+        <v>850</v>
       </c>
       <c r="L107" t="s">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="M107" t="n">
         <v>2</v>
@@ -9713,50 +10455,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>17482</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>853</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>750</v>
+        <v>855</v>
       </c>
       <c r="J108" t="s">
-        <v>751</v>
+        <v>856</v>
       </c>
       <c r="K108" t="s">
-        <v>752</v>
+        <v>857</v>
       </c>
       <c r="L108" t="s">
-        <v>753</v>
+        <v>858</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>754</v>
+        <v>859</v>
       </c>
       <c r="O108" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9778,41 +10524,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>755</v>
+        <v>860</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>17482</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>829</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>756</v>
+        <v>861</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>757</v>
+        <v>862</v>
       </c>
       <c r="J109" t="s">
-        <v>758</v>
+        <v>863</v>
       </c>
       <c r="K109" t="s">
-        <v>759</v>
+        <v>864</v>
       </c>
       <c r="L109" t="s">
-        <v>760</v>
+        <v>865</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
@@ -9839,50 +10589,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>760</v>
+        <v>865</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>17482</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>866</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>761</v>
+        <v>867</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>762</v>
+        <v>868</v>
       </c>
       <c r="J110" t="s">
-        <v>763</v>
+        <v>869</v>
       </c>
       <c r="K110" t="s">
-        <v>764</v>
+        <v>870</v>
       </c>
       <c r="L110" t="s">
-        <v>765</v>
+        <v>871</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>766</v>
+        <v>872</v>
       </c>
       <c r="O110" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9904,7 +10658,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>767</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
